--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>15.57</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8</v>
+        <v>15.57</v>
       </c>
       <c r="D2" t="n">
-        <v>15.8</v>
+        <v>15.57</v>
       </c>
       <c r="E2" t="n">
         <v>15.57</v>
       </c>
       <c r="F2" t="n">
-        <v>223.0334</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>15.28216666666667</v>
+        <v>15.27733333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>15.57</v>
       </c>
       <c r="C3" t="n">
-        <v>15.57</v>
+        <v>15.8</v>
       </c>
       <c r="D3" t="n">
-        <v>15.57</v>
+        <v>15.8</v>
       </c>
       <c r="E3" t="n">
         <v>15.57</v>
       </c>
       <c r="F3" t="n">
-        <v>101.9666</v>
+        <v>223.0334</v>
       </c>
       <c r="G3" t="n">
-        <v>15.28316666666668</v>
+        <v>15.28216666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>15.57</v>
       </c>
       <c r="C4" t="n">
-        <v>15.8</v>
+        <v>15.57</v>
       </c>
       <c r="D4" t="n">
-        <v>15.8</v>
+        <v>15.57</v>
       </c>
       <c r="E4" t="n">
         <v>15.57</v>
       </c>
       <c r="F4" t="n">
-        <v>17535.3109</v>
+        <v>101.9666</v>
       </c>
       <c r="G4" t="n">
-        <v>15.28733333333334</v>
+        <v>15.28316666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="C5" t="n">
         <v>15.8</v>
       </c>
-      <c r="C5" t="n">
-        <v>15.9</v>
-      </c>
       <c r="D5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E5" t="n">
-        <v>15.8</v>
+        <v>15.57</v>
       </c>
       <c r="F5" t="n">
-        <v>19593.24399886793</v>
+        <v>17535.3109</v>
       </c>
       <c r="G5" t="n">
-        <v>15.29100000000001</v>
+        <v>15.28733333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.99</v>
+        <v>15.8</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E6" t="n">
-        <v>15.99</v>
+        <v>15.8</v>
       </c>
       <c r="F6" t="n">
-        <v>98387.61870000001</v>
+        <v>19593.24399886793</v>
       </c>
       <c r="G6" t="n">
-        <v>15.29783333333334</v>
+        <v>15.29100000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.08</v>
+        <v>15.99</v>
       </c>
       <c r="C7" t="n">
-        <v>16.08</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>16.08</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>16.08</v>
+        <v>15.99</v>
       </c>
       <c r="F7" t="n">
-        <v>57228.5856</v>
+        <v>98387.61870000001</v>
       </c>
       <c r="G7" t="n">
-        <v>15.30450000000001</v>
+        <v>15.29783333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>16.08</v>
       </c>
       <c r="D8" t="n">
-        <v>16.1</v>
+        <v>16.08</v>
       </c>
       <c r="E8" t="n">
         <v>16.08</v>
       </c>
       <c r="F8" t="n">
-        <v>41688.8406</v>
+        <v>57228.5856</v>
       </c>
       <c r="G8" t="n">
-        <v>15.31550000000001</v>
+        <v>15.30450000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>16.08</v>
       </c>
       <c r="C9" t="n">
-        <v>15.91</v>
+        <v>16.08</v>
       </c>
       <c r="D9" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E9" t="n">
         <v>16.08</v>
       </c>
-      <c r="E9" t="n">
-        <v>15.91</v>
-      </c>
       <c r="F9" t="n">
-        <v>3400.0311</v>
+        <v>41688.8406</v>
       </c>
       <c r="G9" t="n">
-        <v>15.32000000000001</v>
+        <v>15.31550000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5</v>
+        <v>16.08</v>
       </c>
       <c r="C10" t="n">
-        <v>15.5</v>
+        <v>15.91</v>
       </c>
       <c r="D10" t="n">
-        <v>15.5</v>
+        <v>16.08</v>
       </c>
       <c r="E10" t="n">
-        <v>15.5</v>
+        <v>15.91</v>
       </c>
       <c r="F10" t="n">
-        <v>12606.361</v>
+        <v>3400.0311</v>
       </c>
       <c r="G10" t="n">
-        <v>15.32500000000001</v>
+        <v>15.32000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C11" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D11" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E11" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>12606.361</v>
       </c>
       <c r="G11" t="n">
-        <v>15.33500000000001</v>
+        <v>15.32500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>15.9</v>
       </c>
       <c r="F12" t="n">
-        <v>2192.5405</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>15.34516666666668</v>
+        <v>15.33500000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C13" t="n">
         <v>15.9</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E13" t="n">
         <v>15.9</v>
       </c>
       <c r="F13" t="n">
-        <v>4347.7612</v>
+        <v>2192.5405</v>
       </c>
       <c r="G13" t="n">
-        <v>15.35366666666668</v>
+        <v>15.34516666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F14" t="n">
-        <v>3552.7119</v>
+        <v>4347.7612</v>
       </c>
       <c r="G14" t="n">
-        <v>15.36033333333334</v>
+        <v>15.35366666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>9964.1016</v>
+        <v>3552.7119</v>
       </c>
       <c r="G15" t="n">
-        <v>15.37516666666668</v>
+        <v>15.36033333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>3520.7119</v>
+        <v>9964.1016</v>
       </c>
       <c r="G16" t="n">
-        <v>15.38016666666667</v>
+        <v>15.37516666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="C17" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="D17" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="E17" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1662.1354</v>
+        <v>3520.7119</v>
       </c>
       <c r="G17" t="n">
-        <v>15.38250000000001</v>
+        <v>15.38016666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.6</v>
+        <v>15.75</v>
       </c>
       <c r="C18" t="n">
-        <v>15.6</v>
+        <v>15.75</v>
       </c>
       <c r="D18" t="n">
-        <v>15.6</v>
+        <v>15.75</v>
       </c>
       <c r="E18" t="n">
-        <v>15.6</v>
+        <v>15.75</v>
       </c>
       <c r="F18" t="n">
-        <v>5299.5319</v>
+        <v>1662.1354</v>
       </c>
       <c r="G18" t="n">
         <v>15.38250000000001</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.51</v>
+        <v>15.6</v>
       </c>
       <c r="C19" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D19" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E19" t="n">
-        <v>15.51</v>
+        <v>15.6</v>
       </c>
       <c r="F19" t="n">
-        <v>6462.9811</v>
+        <v>5299.5319</v>
       </c>
       <c r="G19" t="n">
-        <v>15.38916666666668</v>
+        <v>15.38250000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>15.51</v>
       </c>
       <c r="C20" t="n">
-        <v>15.51</v>
+        <v>15.9</v>
       </c>
       <c r="D20" t="n">
-        <v>15.51</v>
+        <v>15.9</v>
       </c>
       <c r="E20" t="n">
         <v>15.51</v>
       </c>
       <c r="F20" t="n">
-        <v>9964.1016</v>
+        <v>6462.9811</v>
       </c>
       <c r="G20" t="n">
-        <v>15.38766666666667</v>
+        <v>15.38916666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.9</v>
+        <v>15.51</v>
       </c>
       <c r="C21" t="n">
-        <v>15.9</v>
+        <v>15.51</v>
       </c>
       <c r="D21" t="n">
-        <v>15.9</v>
+        <v>15.51</v>
       </c>
       <c r="E21" t="n">
-        <v>15.9</v>
+        <v>15.51</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>9964.1016</v>
       </c>
       <c r="G21" t="n">
-        <v>15.39950000000001</v>
+        <v>15.38766666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.51</v>
+        <v>15.9</v>
       </c>
       <c r="C22" t="n">
-        <v>15.51</v>
+        <v>15.9</v>
       </c>
       <c r="D22" t="n">
-        <v>15.51</v>
+        <v>15.9</v>
       </c>
       <c r="E22" t="n">
-        <v>15.51</v>
+        <v>15.9</v>
       </c>
       <c r="F22" t="n">
-        <v>6508.3017</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>15.39800000000001</v>
+        <v>15.39950000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.89</v>
+        <v>15.51</v>
       </c>
       <c r="C23" t="n">
-        <v>15.89</v>
+        <v>15.51</v>
       </c>
       <c r="D23" t="n">
-        <v>15.89</v>
+        <v>15.51</v>
       </c>
       <c r="E23" t="n">
-        <v>15.89</v>
+        <v>15.51</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>6508.3017</v>
       </c>
       <c r="G23" t="n">
-        <v>15.41283333333334</v>
+        <v>15.39800000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.51</v>
+        <v>15.89</v>
       </c>
       <c r="C24" t="n">
-        <v>15.51</v>
+        <v>15.89</v>
       </c>
       <c r="D24" t="n">
-        <v>15.51</v>
+        <v>15.89</v>
       </c>
       <c r="E24" t="n">
-        <v>15.51</v>
+        <v>15.89</v>
       </c>
       <c r="F24" t="n">
-        <v>15692.3755</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>15.41133333333334</v>
+        <v>15.41283333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.79</v>
+        <v>15.51</v>
       </c>
       <c r="C25" t="n">
-        <v>15.79</v>
+        <v>15.51</v>
       </c>
       <c r="D25" t="n">
-        <v>15.79</v>
+        <v>15.51</v>
       </c>
       <c r="E25" t="n">
-        <v>15.79</v>
+        <v>15.51</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>15692.3755</v>
       </c>
       <c r="G25" t="n">
-        <v>15.4295</v>
+        <v>15.41133333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.56</v>
+        <v>15.79</v>
       </c>
       <c r="C26" t="n">
-        <v>15.51</v>
+        <v>15.79</v>
       </c>
       <c r="D26" t="n">
-        <v>15.56</v>
+        <v>15.79</v>
       </c>
       <c r="E26" t="n">
-        <v>15.51</v>
+        <v>15.79</v>
       </c>
       <c r="F26" t="n">
-        <v>37564.5887</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>15.43633333333334</v>
+        <v>15.4295</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.88</v>
+        <v>15.56</v>
       </c>
       <c r="C27" t="n">
-        <v>15.88</v>
+        <v>15.51</v>
       </c>
       <c r="D27" t="n">
-        <v>15.88</v>
+        <v>15.56</v>
       </c>
       <c r="E27" t="n">
-        <v>15.88</v>
+        <v>15.51</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>37564.5887</v>
       </c>
       <c r="G27" t="n">
-        <v>15.4495</v>
+        <v>15.43633333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>15.88</v>
       </c>
       <c r="C28" t="n">
-        <v>15.9</v>
+        <v>15.88</v>
       </c>
       <c r="D28" t="n">
-        <v>15.9</v>
+        <v>15.88</v>
       </c>
       <c r="E28" t="n">
         <v>15.88</v>
       </c>
       <c r="F28" t="n">
-        <v>168.0092177358491</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>15.46283333333333</v>
+        <v>15.4495</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="C29" t="n">
         <v>15.9</v>
       </c>
-      <c r="C29" t="n">
-        <v>16</v>
-      </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E29" t="n">
-        <v>15.9</v>
+        <v>15.88</v>
       </c>
       <c r="F29" t="n">
-        <v>33315.04048226415</v>
+        <v>168.0092177358491</v>
       </c>
       <c r="G29" t="n">
-        <v>15.47783333333333</v>
+        <v>15.46283333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.99</v>
+        <v>15.9</v>
       </c>
       <c r="C30" t="n">
-        <v>15.61</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>15.99</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>15.61</v>
+        <v>15.9</v>
       </c>
       <c r="F30" t="n">
-        <v>13261.2873</v>
+        <v>33315.04048226415</v>
       </c>
       <c r="G30" t="n">
-        <v>15.48466666666667</v>
+        <v>15.47783333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.79</v>
+        <v>15.99</v>
       </c>
       <c r="C31" t="n">
-        <v>15.79</v>
+        <v>15.61</v>
       </c>
       <c r="D31" t="n">
-        <v>15.79</v>
+        <v>15.99</v>
       </c>
       <c r="E31" t="n">
-        <v>15.79</v>
+        <v>15.61</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>13261.2873</v>
       </c>
       <c r="G31" t="n">
-        <v>15.4945</v>
+        <v>15.48466666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.6</v>
+        <v>15.79</v>
       </c>
       <c r="C32" t="n">
-        <v>15.6</v>
+        <v>15.79</v>
       </c>
       <c r="D32" t="n">
-        <v>15.6</v>
+        <v>15.79</v>
       </c>
       <c r="E32" t="n">
-        <v>15.6</v>
+        <v>15.79</v>
       </c>
       <c r="F32" t="n">
-        <v>5340.803</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>15.4995</v>
+        <v>15.4945</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.79</v>
+        <v>15.6</v>
       </c>
       <c r="C33" t="n">
-        <v>15.79</v>
+        <v>15.6</v>
       </c>
       <c r="D33" t="n">
-        <v>15.79</v>
+        <v>15.6</v>
       </c>
       <c r="E33" t="n">
-        <v>15.79</v>
+        <v>15.6</v>
       </c>
       <c r="F33" t="n">
-        <v>32</v>
+        <v>5340.803</v>
       </c>
       <c r="G33" t="n">
-        <v>15.50933333333333</v>
+        <v>15.4995</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.61</v>
+        <v>15.79</v>
       </c>
       <c r="C34" t="n">
         <v>15.79</v>
@@ -1562,13 +1562,13 @@
         <v>15.79</v>
       </c>
       <c r="E34" t="n">
-        <v>15.61</v>
+        <v>15.79</v>
       </c>
       <c r="F34" t="n">
-        <v>10554.7843</v>
+        <v>32</v>
       </c>
       <c r="G34" t="n">
-        <v>15.5175</v>
+        <v>15.50933333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.79</v>
+        <v>15.61</v>
       </c>
       <c r="C35" t="n">
         <v>15.79</v>
@@ -1597,13 +1597,13 @@
         <v>15.79</v>
       </c>
       <c r="E35" t="n">
-        <v>15.79</v>
+        <v>15.61</v>
       </c>
       <c r="F35" t="n">
-        <v>9527.189200000001</v>
+        <v>10554.7843</v>
       </c>
       <c r="G35" t="n">
-        <v>15.52566666666667</v>
+        <v>15.5175</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.97</v>
+        <v>15.79</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>15.79</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>15.79</v>
       </c>
       <c r="E36" t="n">
-        <v>15.97</v>
+        <v>15.79</v>
       </c>
       <c r="F36" t="n">
-        <v>7347.2628</v>
+        <v>9527.189200000001</v>
       </c>
       <c r="G36" t="n">
-        <v>15.53733333333333</v>
+        <v>15.52566666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>15.97</v>
       </c>
       <c r="C37" t="n">
-        <v>15.52</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
+        <v>16</v>
+      </c>
+      <c r="E37" t="n">
         <v>15.97</v>
       </c>
-      <c r="E37" t="n">
-        <v>15.52</v>
-      </c>
       <c r="F37" t="n">
-        <v>42918.6443</v>
+        <v>7347.2628</v>
       </c>
       <c r="G37" t="n">
-        <v>15.541</v>
+        <v>15.53733333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>15.52</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="E38" t="n">
-        <v>16</v>
+        <v>15.52</v>
       </c>
       <c r="F38" t="n">
-        <v>3713.2355</v>
+        <v>42918.6443</v>
       </c>
       <c r="G38" t="n">
-        <v>15.552</v>
+        <v>15.541</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>2117.533</v>
+        <v>3713.2355</v>
       </c>
       <c r="G39" t="n">
-        <v>15.56816666666667</v>
+        <v>15.552</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>2500</v>
+        <v>2117.533</v>
       </c>
       <c r="G40" t="n">
-        <v>15.58416666666667</v>
+        <v>15.56816666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>15.6</v>
       </c>
       <c r="F41" t="n">
-        <v>7034.7865</v>
+        <v>2500</v>
       </c>
       <c r="G41" t="n">
-        <v>15.60083333333333</v>
+        <v>15.58416666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D42" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F42" t="n">
-        <v>7907.3931</v>
+        <v>7034.7865</v>
       </c>
       <c r="G42" t="n">
-        <v>15.62416666666667</v>
+        <v>15.60083333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>1325.6402</v>
+        <v>7907.3931</v>
       </c>
       <c r="G43" t="n">
-        <v>15.64683333333334</v>
+        <v>15.62416666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>16</v>
       </c>
       <c r="F44" t="n">
-        <v>1952.5208</v>
+        <v>1325.6402</v>
       </c>
       <c r="G44" t="n">
-        <v>15.663</v>
+        <v>15.64683333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.91</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>15.53</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>15.91</v>
+        <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>15.53</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
-        <v>13088.3509</v>
+        <v>1952.5208</v>
       </c>
       <c r="G45" t="n">
-        <v>15.67133333333333</v>
+        <v>15.663</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.9</v>
+        <v>15.91</v>
       </c>
       <c r="C46" t="n">
-        <v>15.9</v>
+        <v>15.53</v>
       </c>
       <c r="D46" t="n">
-        <v>15.9</v>
+        <v>15.91</v>
       </c>
       <c r="E46" t="n">
-        <v>15.9</v>
+        <v>15.53</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>13088.3509</v>
       </c>
       <c r="G46" t="n">
-        <v>15.68583333333333</v>
+        <v>15.67133333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>15.9</v>
       </c>
       <c r="F47" t="n">
-        <v>5464.6416</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>15.6975</v>
+        <v>15.68583333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>15.9</v>
       </c>
       <c r="C48" t="n">
-        <v>15.99</v>
+        <v>15.9</v>
       </c>
       <c r="D48" t="n">
-        <v>15.99</v>
+        <v>15.9</v>
       </c>
       <c r="E48" t="n">
         <v>15.9</v>
       </c>
       <c r="F48" t="n">
-        <v>6768.5702</v>
+        <v>5464.6416</v>
       </c>
       <c r="G48" t="n">
-        <v>15.71216666666667</v>
+        <v>15.6975</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C49" t="n">
         <v>15.99</v>
       </c>
-      <c r="C49" t="n">
-        <v>16.01</v>
-      </c>
       <c r="D49" t="n">
-        <v>16.01</v>
+        <v>15.99</v>
       </c>
       <c r="E49" t="n">
-        <v>15.99</v>
+        <v>15.9</v>
       </c>
       <c r="F49" t="n">
-        <v>100224.5882</v>
+        <v>6768.5702</v>
       </c>
       <c r="G49" t="n">
-        <v>15.72566666666667</v>
+        <v>15.71216666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16.1</v>
+        <v>15.99</v>
       </c>
       <c r="C50" t="n">
-        <v>16.5</v>
+        <v>16.01</v>
       </c>
       <c r="D50" t="n">
-        <v>16.5</v>
+        <v>16.01</v>
       </c>
       <c r="E50" t="n">
-        <v>16.1</v>
+        <v>15.99</v>
       </c>
       <c r="F50" t="n">
-        <v>3275.1294</v>
+        <v>100224.5882</v>
       </c>
       <c r="G50" t="n">
-        <v>15.7465</v>
+        <v>15.72566666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C51" t="n">
         <v>16.5</v>
       </c>
-      <c r="C51" t="n">
-        <v>16.87</v>
-      </c>
       <c r="D51" t="n">
-        <v>16.87</v>
+        <v>16.5</v>
       </c>
       <c r="E51" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="F51" t="n">
-        <v>3360.943</v>
+        <v>3275.1294</v>
       </c>
       <c r="G51" t="n">
-        <v>15.77266666666667</v>
+        <v>15.7465</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C52" t="n">
         <v>16.87</v>
       </c>
-      <c r="C52" t="n">
-        <v>17.38</v>
-      </c>
       <c r="D52" t="n">
-        <v>17.38</v>
+        <v>16.87</v>
       </c>
       <c r="E52" t="n">
-        <v>16.87</v>
+        <v>16.5</v>
       </c>
       <c r="F52" t="n">
-        <v>236472.3691760234</v>
+        <v>3360.943</v>
       </c>
       <c r="G52" t="n">
-        <v>15.80733333333333</v>
+        <v>15.77266666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17.38</v>
+        <v>16.87</v>
       </c>
       <c r="C53" t="n">
         <v>17.38</v>
@@ -2227,13 +2227,13 @@
         <v>17.38</v>
       </c>
       <c r="E53" t="n">
-        <v>17.38</v>
+        <v>16.87</v>
       </c>
       <c r="F53" t="n">
-        <v>6262.0212</v>
+        <v>236472.3691760234</v>
       </c>
       <c r="G53" t="n">
-        <v>15.84133333333333</v>
+        <v>15.80733333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17.4</v>
+        <v>17.38</v>
       </c>
       <c r="C54" t="n">
-        <v>17.4</v>
+        <v>17.38</v>
       </c>
       <c r="D54" t="n">
-        <v>17.4</v>
+        <v>17.38</v>
       </c>
       <c r="E54" t="n">
-        <v>17.4</v>
+        <v>17.38</v>
       </c>
       <c r="F54" t="n">
-        <v>53.2249</v>
+        <v>6262.0212</v>
       </c>
       <c r="G54" t="n">
-        <v>15.87633333333333</v>
+        <v>15.84133333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.7</v>
+        <v>17.4</v>
       </c>
       <c r="C55" t="n">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="D55" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="E55" t="n">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="F55" t="n">
-        <v>18163.6541</v>
+        <v>53.2249</v>
       </c>
       <c r="G55" t="n">
-        <v>15.89966666666667</v>
+        <v>15.87633333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2323,28 +2323,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="C56" t="n">
-        <v>14.64</v>
+        <v>16.6</v>
       </c>
       <c r="D56" t="n">
-        <v>16.4</v>
+        <v>17.3</v>
       </c>
       <c r="E56" t="n">
-        <v>14.64</v>
+        <v>16.6</v>
       </c>
       <c r="F56" t="n">
-        <v>205565.5982</v>
+        <v>18163.6541</v>
       </c>
       <c r="G56" t="n">
-        <v>15.89033333333333</v>
+        <v>15.89966666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="C57" t="n">
-        <v>16.9</v>
+        <v>14.64</v>
       </c>
       <c r="D57" t="n">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="E57" t="n">
-        <v>16.9</v>
+        <v>14.64</v>
       </c>
       <c r="F57" t="n">
-        <v>10778.4314</v>
+        <v>205565.5982</v>
       </c>
       <c r="G57" t="n">
-        <v>15.91083333333333</v>
+        <v>15.89033333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="C58" t="n">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="D58" t="n">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="E58" t="n">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="F58" t="n">
-        <v>6169.1686</v>
+        <v>10778.4314</v>
       </c>
       <c r="G58" t="n">
-        <v>15.90416666666667</v>
+        <v>15.91083333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.03</v>
+        <v>15.5</v>
       </c>
       <c r="C59" t="n">
-        <v>16.03</v>
+        <v>15.5</v>
       </c>
       <c r="D59" t="n">
-        <v>16.03</v>
+        <v>15.5</v>
       </c>
       <c r="E59" t="n">
-        <v>16.03</v>
+        <v>15.5</v>
       </c>
       <c r="F59" t="n">
-        <v>25335.6484</v>
+        <v>6169.1686</v>
       </c>
       <c r="G59" t="n">
-        <v>15.91633333333333</v>
+        <v>15.90416666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16.18</v>
+        <v>16.03</v>
       </c>
       <c r="C60" t="n">
-        <v>16.2</v>
+        <v>16.03</v>
       </c>
       <c r="D60" t="n">
-        <v>16.2</v>
+        <v>16.03</v>
       </c>
       <c r="E60" t="n">
-        <v>16.18</v>
+        <v>16.03</v>
       </c>
       <c r="F60" t="n">
-        <v>25275.9108</v>
+        <v>25335.6484</v>
       </c>
       <c r="G60" t="n">
-        <v>15.93133333333333</v>
+        <v>15.91633333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.41</v>
+        <v>16.18</v>
       </c>
       <c r="C61" t="n">
-        <v>16.42</v>
+        <v>16.2</v>
       </c>
       <c r="D61" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="E61" t="n">
-        <v>16.41</v>
+        <v>16.18</v>
       </c>
       <c r="F61" t="n">
-        <v>14873.8538</v>
+        <v>25275.9108</v>
       </c>
       <c r="G61" t="n">
-        <v>15.9455</v>
+        <v>15.93133333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.99</v>
+        <v>16.41</v>
       </c>
       <c r="C62" t="n">
-        <v>15.99</v>
+        <v>16.42</v>
       </c>
       <c r="D62" t="n">
-        <v>15.99</v>
+        <v>16.5</v>
       </c>
       <c r="E62" t="n">
-        <v>15.99</v>
+        <v>16.41</v>
       </c>
       <c r="F62" t="n">
-        <v>10764.0402</v>
+        <v>14873.8538</v>
       </c>
       <c r="G62" t="n">
-        <v>15.94866666666667</v>
+        <v>15.9455</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.9</v>
+        <v>15.99</v>
       </c>
       <c r="C63" t="n">
         <v>15.99</v>
@@ -2577,13 +2577,13 @@
         <v>15.99</v>
       </c>
       <c r="E63" t="n">
-        <v>15.9</v>
+        <v>15.99</v>
       </c>
       <c r="F63" t="n">
-        <v>24183.4436</v>
+        <v>10764.0402</v>
       </c>
       <c r="G63" t="n">
-        <v>15.95566666666667</v>
+        <v>15.94866666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C64" t="n">
         <v>15.99</v>
       </c>
       <c r="D64" t="n">
-        <v>16.1</v>
+        <v>15.99</v>
       </c>
       <c r="E64" t="n">
-        <v>15.99</v>
+        <v>15.9</v>
       </c>
       <c r="F64" t="n">
-        <v>55200.8882</v>
+        <v>24183.4436</v>
       </c>
       <c r="G64" t="n">
-        <v>15.95883333333333</v>
+        <v>15.95566666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>16.1</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>15.99</v>
       </c>
       <c r="D65" t="n">
         <v>16.1</v>
       </c>
       <c r="E65" t="n">
-        <v>16</v>
+        <v>15.99</v>
       </c>
       <c r="F65" t="n">
-        <v>49458.3088</v>
+        <v>55200.8882</v>
       </c>
       <c r="G65" t="n">
-        <v>15.9605</v>
+        <v>15.95883333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="n">
-        <v>70</v>
+        <v>49458.3088</v>
       </c>
       <c r="G66" t="n">
-        <v>15.94383333333334</v>
+        <v>15.9605</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="C67" t="n">
-        <v>16.7</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="E67" t="n">
-        <v>16.7</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G67" t="n">
-        <v>15.95416666666667</v>
+        <v>15.94383333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="C68" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="D68" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="E68" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="F68" t="n">
-        <v>3711.7996</v>
+        <v>30</v>
       </c>
       <c r="G68" t="n">
-        <v>15.9445</v>
+        <v>15.95416666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>15.5</v>
       </c>
       <c r="C69" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="D69" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="E69" t="n">
-        <v>15.16</v>
+        <v>15.5</v>
       </c>
       <c r="F69" t="n">
-        <v>96696.9957</v>
+        <v>3711.7996</v>
       </c>
       <c r="G69" t="n">
-        <v>15.956</v>
+        <v>15.9445</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="C70" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="D70" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="E70" t="n">
-        <v>16.2</v>
+        <v>15.16</v>
       </c>
       <c r="F70" t="n">
-        <v>1368.2657</v>
+        <v>96696.9957</v>
       </c>
       <c r="G70" t="n">
-        <v>15.96766666666667</v>
+        <v>15.956</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.18</v>
+        <v>16.2</v>
       </c>
       <c r="C71" t="n">
-        <v>16.18</v>
+        <v>16.2</v>
       </c>
       <c r="D71" t="n">
-        <v>16.18</v>
+        <v>16.2</v>
       </c>
       <c r="E71" t="n">
-        <v>16.18</v>
+        <v>16.2</v>
       </c>
       <c r="F71" t="n">
-        <v>33</v>
+        <v>1368.2657</v>
       </c>
       <c r="G71" t="n">
-        <v>15.97233333333334</v>
+        <v>15.96766666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.01</v>
+        <v>16.18</v>
       </c>
       <c r="C72" t="n">
-        <v>16.01</v>
+        <v>16.18</v>
       </c>
       <c r="D72" t="n">
-        <v>16.01</v>
+        <v>16.18</v>
       </c>
       <c r="E72" t="n">
-        <v>16.01</v>
+        <v>16.18</v>
       </c>
       <c r="F72" t="n">
-        <v>234.1683</v>
+        <v>33</v>
       </c>
       <c r="G72" t="n">
-        <v>15.97416666666667</v>
+        <v>15.97233333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.31</v>
+        <v>16.01</v>
       </c>
       <c r="C73" t="n">
-        <v>15.31</v>
+        <v>16.01</v>
       </c>
       <c r="D73" t="n">
-        <v>15.31</v>
+        <v>16.01</v>
       </c>
       <c r="E73" t="n">
-        <v>15.31</v>
+        <v>16.01</v>
       </c>
       <c r="F73" t="n">
-        <v>1368.2657</v>
+        <v>234.1683</v>
       </c>
       <c r="G73" t="n">
-        <v>15.96433333333334</v>
+        <v>15.97416666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16</v>
+        <v>15.31</v>
       </c>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>15.31</v>
       </c>
       <c r="D74" t="n">
-        <v>16</v>
+        <v>15.31</v>
       </c>
       <c r="E74" t="n">
-        <v>16</v>
+        <v>15.31</v>
       </c>
       <c r="F74" t="n">
-        <v>32</v>
+        <v>1368.2657</v>
       </c>
       <c r="G74" t="n">
         <v>15.96433333333334</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.85</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>15.85</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>15.85</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>15.85</v>
+        <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="G75" t="n">
-        <v>15.96183333333334</v>
+        <v>15.96433333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.82</v>
+        <v>15.85</v>
       </c>
       <c r="C76" t="n">
-        <v>15.82</v>
+        <v>15.85</v>
       </c>
       <c r="D76" t="n">
-        <v>15.82</v>
+        <v>15.85</v>
       </c>
       <c r="E76" t="n">
-        <v>15.82</v>
+        <v>15.85</v>
       </c>
       <c r="F76" t="n">
-        <v>4358.8557</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
-        <v>15.96716666666667</v>
+        <v>15.96183333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.71</v>
+        <v>15.82</v>
       </c>
       <c r="C77" t="n">
-        <v>15.71</v>
+        <v>15.82</v>
       </c>
       <c r="D77" t="n">
-        <v>15.71</v>
+        <v>15.82</v>
       </c>
       <c r="E77" t="n">
-        <v>15.71</v>
+        <v>15.82</v>
       </c>
       <c r="F77" t="n">
-        <v>4292.6626</v>
+        <v>4358.8557</v>
       </c>
       <c r="G77" t="n">
-        <v>15.9665</v>
+        <v>15.96716666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.86</v>
+        <v>15.71</v>
       </c>
       <c r="C78" t="n">
-        <v>15.86</v>
+        <v>15.71</v>
       </c>
       <c r="D78" t="n">
-        <v>15.86</v>
+        <v>15.71</v>
       </c>
       <c r="E78" t="n">
-        <v>15.86</v>
+        <v>15.71</v>
       </c>
       <c r="F78" t="n">
-        <v>32</v>
+        <v>4292.6626</v>
       </c>
       <c r="G78" t="n">
-        <v>15.97083333333334</v>
+        <v>15.9665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.5</v>
+        <v>15.86</v>
       </c>
       <c r="C79" t="n">
-        <v>15.3</v>
+        <v>15.86</v>
       </c>
       <c r="D79" t="n">
-        <v>15.5</v>
+        <v>15.86</v>
       </c>
       <c r="E79" t="n">
-        <v>15.3</v>
+        <v>15.86</v>
       </c>
       <c r="F79" t="n">
-        <v>83675.3278</v>
+        <v>32</v>
       </c>
       <c r="G79" t="n">
-        <v>15.96083333333334</v>
+        <v>15.97083333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C80" t="n">
         <v>15.3</v>
       </c>
       <c r="D80" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E80" t="n">
         <v>15.3</v>
       </c>
       <c r="F80" t="n">
-        <v>6162.0212</v>
+        <v>83675.3278</v>
       </c>
       <c r="G80" t="n">
-        <v>15.95733333333334</v>
+        <v>15.96083333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.86</v>
+        <v>15.3</v>
       </c>
       <c r="C81" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D81" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E81" t="n">
-        <v>15.86</v>
+        <v>15.3</v>
       </c>
       <c r="F81" t="n">
-        <v>28401.9137</v>
+        <v>6162.0212</v>
       </c>
       <c r="G81" t="n">
-        <v>15.96066666666667</v>
+        <v>15.95733333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.1</v>
+        <v>15.86</v>
       </c>
       <c r="C82" t="n">
         <v>16.1</v>
@@ -3242,22 +3242,26 @@
         <v>16.1</v>
       </c>
       <c r="E82" t="n">
-        <v>16.1</v>
+        <v>15.86</v>
       </c>
       <c r="F82" t="n">
-        <v>3003.7839</v>
+        <v>28401.9137</v>
       </c>
       <c r="G82" t="n">
-        <v>15.9705</v>
+        <v>15.96066666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3271,19 +3275,19 @@
         <v>16.1</v>
       </c>
       <c r="C83" t="n">
-        <v>16.18</v>
+        <v>16.1</v>
       </c>
       <c r="D83" t="n">
-        <v>16.18</v>
+        <v>16.1</v>
       </c>
       <c r="E83" t="n">
         <v>16.1</v>
       </c>
       <c r="F83" t="n">
-        <v>33569.7998</v>
+        <v>3003.7839</v>
       </c>
       <c r="G83" t="n">
-        <v>15.97533333333334</v>
+        <v>15.9705</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3313,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C84" t="n">
-        <v>16.5</v>
+        <v>16.18</v>
       </c>
       <c r="D84" t="n">
-        <v>16.5</v>
+        <v>16.18</v>
       </c>
       <c r="E84" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F84" t="n">
-        <v>38300.9475</v>
+        <v>33569.7998</v>
       </c>
       <c r="G84" t="n">
-        <v>15.99183333333334</v>
+        <v>15.97533333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,7 +3354,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C85" t="n">
         <v>16.5</v>
@@ -3347,13 +3363,13 @@
         <v>16.5</v>
       </c>
       <c r="E85" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F85" t="n">
-        <v>12802.9574</v>
+        <v>38300.9475</v>
       </c>
       <c r="G85" t="n">
-        <v>16.00366666666667</v>
+        <v>15.99183333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="C86" t="n">
-        <v>17.49</v>
+        <v>16.5</v>
       </c>
       <c r="D86" t="n">
-        <v>17.49</v>
+        <v>16.5</v>
       </c>
       <c r="E86" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="F86" t="n">
-        <v>224862.93108502</v>
+        <v>12802.9574</v>
       </c>
       <c r="G86" t="n">
-        <v>16.03666666666667</v>
+        <v>16.00366666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3427,19 @@
         <v>16.7</v>
       </c>
       <c r="C87" t="n">
-        <v>17.46</v>
+        <v>17.49</v>
       </c>
       <c r="D87" t="n">
-        <v>17.46</v>
+        <v>17.49</v>
       </c>
       <c r="E87" t="n">
         <v>16.7</v>
       </c>
       <c r="F87" t="n">
-        <v>96.0103</v>
+        <v>224862.93108502</v>
       </c>
       <c r="G87" t="n">
-        <v>16.06300000000001</v>
+        <v>16.03666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17.4</v>
+        <v>16.7</v>
       </c>
       <c r="C88" t="n">
-        <v>17.5</v>
+        <v>17.46</v>
       </c>
       <c r="D88" t="n">
-        <v>17.5</v>
+        <v>17.46</v>
       </c>
       <c r="E88" t="n">
-        <v>17.4</v>
+        <v>16.7</v>
       </c>
       <c r="F88" t="n">
-        <v>115404.3046</v>
+        <v>96.0103</v>
       </c>
       <c r="G88" t="n">
-        <v>16.08966666666667</v>
+        <v>16.06300000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17.46</v>
+        <v>17.4</v>
       </c>
       <c r="C89" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="D89" t="n">
-        <v>17.46</v>
+        <v>17.5</v>
       </c>
       <c r="E89" t="n">
         <v>17.4</v>
       </c>
       <c r="F89" t="n">
-        <v>46019.2951</v>
+        <v>115404.3046</v>
       </c>
       <c r="G89" t="n">
-        <v>16.11300000000001</v>
+        <v>16.08966666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17.45</v>
+        <v>17.46</v>
       </c>
       <c r="C90" t="n">
-        <v>15.86</v>
+        <v>17.4</v>
       </c>
       <c r="D90" t="n">
-        <v>17.45</v>
+        <v>17.46</v>
       </c>
       <c r="E90" t="n">
-        <v>15.86</v>
+        <v>17.4</v>
       </c>
       <c r="F90" t="n">
-        <v>12288.73</v>
+        <v>46019.2951</v>
       </c>
       <c r="G90" t="n">
-        <v>16.11716666666667</v>
+        <v>16.11300000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3567,19 @@
         <v>17.45</v>
       </c>
       <c r="C91" t="n">
-        <v>17.44</v>
+        <v>15.86</v>
       </c>
       <c r="D91" t="n">
         <v>17.45</v>
       </c>
       <c r="E91" t="n">
-        <v>17.44</v>
+        <v>15.86</v>
       </c>
       <c r="F91" t="n">
-        <v>872.1671</v>
+        <v>12288.73</v>
       </c>
       <c r="G91" t="n">
-        <v>16.14466666666667</v>
+        <v>16.11716666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17</v>
+        <v>17.45</v>
       </c>
       <c r="C92" t="n">
         <v>17.44</v>
       </c>
       <c r="D92" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="E92" t="n">
         <v>17.44</v>
       </c>
-      <c r="E92" t="n">
-        <v>17</v>
-      </c>
       <c r="F92" t="n">
-        <v>20689.43337431193</v>
+        <v>872.1671</v>
       </c>
       <c r="G92" t="n">
-        <v>16.17533333333334</v>
+        <v>16.14466666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>17</v>
+      </c>
+      <c r="C93" t="n">
         <v>17.44</v>
       </c>
-      <c r="C93" t="n">
-        <v>18.02</v>
-      </c>
       <c r="D93" t="n">
-        <v>18.24</v>
+        <v>17.44</v>
       </c>
       <c r="E93" t="n">
-        <v>17.44</v>
+        <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>987725.6763406681</v>
+        <v>20689.43337431193</v>
       </c>
       <c r="G93" t="n">
-        <v>16.21250000000001</v>
+        <v>16.17533333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="C94" t="n">
         <v>18.02</v>
       </c>
-      <c r="C94" t="n">
-        <v>18.2</v>
-      </c>
       <c r="D94" t="n">
-        <v>18.37</v>
+        <v>18.24</v>
       </c>
       <c r="E94" t="n">
-        <v>18.02</v>
+        <v>17.44</v>
       </c>
       <c r="F94" t="n">
-        <v>316068.9607</v>
+        <v>987725.6763406681</v>
       </c>
       <c r="G94" t="n">
-        <v>16.25266666666668</v>
+        <v>16.21250000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18.19</v>
+        <v>18.02</v>
       </c>
       <c r="C95" t="n">
-        <v>16.2</v>
+        <v>18.2</v>
       </c>
       <c r="D95" t="n">
-        <v>18.19</v>
+        <v>18.37</v>
       </c>
       <c r="E95" t="n">
-        <v>16.2</v>
+        <v>18.02</v>
       </c>
       <c r="F95" t="n">
-        <v>200818.5977</v>
+        <v>316068.9607</v>
       </c>
       <c r="G95" t="n">
-        <v>16.25950000000001</v>
+        <v>16.25266666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17.8</v>
+        <v>18.19</v>
       </c>
       <c r="C96" t="n">
-        <v>16.62</v>
+        <v>16.2</v>
       </c>
       <c r="D96" t="n">
-        <v>17.88</v>
+        <v>18.19</v>
       </c>
       <c r="E96" t="n">
-        <v>16.62</v>
+        <v>16.2</v>
       </c>
       <c r="F96" t="n">
-        <v>56894.36646873602</v>
+        <v>200818.5977</v>
       </c>
       <c r="G96" t="n">
-        <v>16.26983333333335</v>
+        <v>16.25950000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,28 +3774,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="C97" t="n">
-        <v>17.86</v>
+        <v>16.62</v>
       </c>
       <c r="D97" t="n">
-        <v>17.86</v>
+        <v>17.88</v>
       </c>
       <c r="E97" t="n">
-        <v>16.8</v>
+        <v>16.62</v>
       </c>
       <c r="F97" t="n">
-        <v>4177.1183</v>
+        <v>56894.36646873602</v>
       </c>
       <c r="G97" t="n">
-        <v>16.30883333333334</v>
+        <v>16.26983333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17.85</v>
+        <v>16.8</v>
       </c>
       <c r="C98" t="n">
-        <v>17.53</v>
+        <v>17.86</v>
       </c>
       <c r="D98" t="n">
-        <v>17.85</v>
+        <v>17.86</v>
       </c>
       <c r="E98" t="n">
-        <v>17.5</v>
+        <v>16.8</v>
       </c>
       <c r="F98" t="n">
-        <v>8981.5857</v>
+        <v>4177.1183</v>
       </c>
       <c r="G98" t="n">
-        <v>16.33433333333334</v>
+        <v>16.30883333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17.98</v>
+        <v>17.85</v>
       </c>
       <c r="C99" t="n">
-        <v>17.99</v>
+        <v>17.53</v>
       </c>
       <c r="D99" t="n">
-        <v>18.4</v>
+        <v>17.85</v>
       </c>
       <c r="E99" t="n">
-        <v>17.9</v>
+        <v>17.5</v>
       </c>
       <c r="F99" t="n">
-        <v>451934.9939913841</v>
+        <v>8981.5857</v>
       </c>
       <c r="G99" t="n">
-        <v>16.36750000000001</v>
+        <v>16.33433333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17.9</v>
+        <v>17.98</v>
       </c>
       <c r="C100" t="n">
-        <v>18.02</v>
+        <v>17.99</v>
       </c>
       <c r="D100" t="n">
-        <v>18.76</v>
+        <v>18.4</v>
       </c>
       <c r="E100" t="n">
         <v>17.9</v>
       </c>
       <c r="F100" t="n">
-        <v>689044.7400086159</v>
+        <v>451934.9939913841</v>
       </c>
       <c r="G100" t="n">
-        <v>16.40783333333334</v>
+        <v>16.36750000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C101" t="n">
         <v>18.02</v>
       </c>
-      <c r="C101" t="n">
-        <v>17.58</v>
-      </c>
       <c r="D101" t="n">
-        <v>18.5</v>
+        <v>18.76</v>
       </c>
       <c r="E101" t="n">
-        <v>17.58</v>
+        <v>17.9</v>
       </c>
       <c r="F101" t="n">
-        <v>162050.1957</v>
+        <v>689044.7400086159</v>
       </c>
       <c r="G101" t="n">
-        <v>16.44083333333334</v>
+        <v>16.40783333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>17.6</v>
+        <v>18.02</v>
       </c>
       <c r="C102" t="n">
-        <v>18.09</v>
+        <v>17.58</v>
       </c>
       <c r="D102" t="n">
-        <v>18.29</v>
+        <v>18.5</v>
       </c>
       <c r="E102" t="n">
-        <v>17.6</v>
+        <v>17.58</v>
       </c>
       <c r="F102" t="n">
-        <v>95018.90113758224</v>
+        <v>162050.1957</v>
       </c>
       <c r="G102" t="n">
-        <v>16.47566666666668</v>
+        <v>16.44083333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>18.09</v>
       </c>
       <c r="D103" t="n">
-        <v>18</v>
+        <v>18.29</v>
       </c>
       <c r="E103" t="n">
-        <v>17.72</v>
+        <v>17.6</v>
       </c>
       <c r="F103" t="n">
-        <v>106650.2924</v>
+        <v>95018.90113758224</v>
       </c>
       <c r="G103" t="n">
-        <v>16.50900000000001</v>
+        <v>16.47566666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="C104" t="n">
-        <v>18.87</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
-        <v>18.87</v>
+        <v>18</v>
       </c>
       <c r="E104" t="n">
-        <v>18.2</v>
+        <v>17.72</v>
       </c>
       <c r="F104" t="n">
-        <v>129659.4525706942</v>
+        <v>106650.2924</v>
       </c>
       <c r="G104" t="n">
-        <v>16.55683333333334</v>
+        <v>16.50900000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="C105" t="n">
-        <v>18.86</v>
+        <v>18.87</v>
       </c>
       <c r="D105" t="n">
-        <v>18.86</v>
+        <v>18.87</v>
       </c>
       <c r="E105" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="F105" t="n">
-        <v>80129.63636617179</v>
+        <v>129659.4525706942</v>
       </c>
       <c r="G105" t="n">
-        <v>16.61233333333335</v>
+        <v>16.55683333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="C106" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="D106" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="E106" t="n">
         <v>18.4</v>
       </c>
-      <c r="D106" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="E106" t="n">
-        <v>18.29</v>
-      </c>
       <c r="F106" t="n">
-        <v>287949.7719721103</v>
+        <v>80129.63636617179</v>
       </c>
       <c r="G106" t="n">
-        <v>16.65400000000001</v>
+        <v>16.61233333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="C107" t="n">
         <v>18.4</v>
       </c>
       <c r="D107" t="n">
-        <v>18.8</v>
+        <v>18.87</v>
       </c>
       <c r="E107" t="n">
-        <v>18.4</v>
+        <v>18.29</v>
       </c>
       <c r="F107" t="n">
-        <v>180245.913</v>
+        <v>287949.7719721103</v>
       </c>
       <c r="G107" t="n">
-        <v>16.69566666666668</v>
+        <v>16.65400000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>18.39</v>
+        <v>18.4</v>
       </c>
       <c r="C108" t="n">
-        <v>17.66</v>
+        <v>18.4</v>
       </c>
       <c r="D108" t="n">
-        <v>18.39</v>
+        <v>18.8</v>
       </c>
       <c r="E108" t="n">
-        <v>17.6</v>
+        <v>18.4</v>
       </c>
       <c r="F108" t="n">
-        <v>177339.5197</v>
+        <v>180245.913</v>
       </c>
       <c r="G108" t="n">
-        <v>16.72350000000001</v>
+        <v>16.69566666666668</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4197,19 @@
         <v>18.39</v>
       </c>
       <c r="C109" t="n">
-        <v>18.49</v>
+        <v>17.66</v>
       </c>
       <c r="D109" t="n">
-        <v>18.78</v>
+        <v>18.39</v>
       </c>
       <c r="E109" t="n">
-        <v>18.39</v>
+        <v>17.6</v>
       </c>
       <c r="F109" t="n">
-        <v>56908.7163</v>
+        <v>177339.5197</v>
       </c>
       <c r="G109" t="n">
-        <v>16.76483333333335</v>
+        <v>16.72350000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>18</v>
+        <v>18.39</v>
       </c>
       <c r="C110" t="n">
-        <v>18.7</v>
+        <v>18.49</v>
       </c>
       <c r="D110" t="n">
-        <v>18.7</v>
+        <v>18.78</v>
       </c>
       <c r="E110" t="n">
-        <v>17.89</v>
+        <v>18.39</v>
       </c>
       <c r="F110" t="n">
-        <v>46935.7854</v>
+        <v>56908.7163</v>
       </c>
       <c r="G110" t="n">
-        <v>16.80150000000001</v>
+        <v>16.76483333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>18.78</v>
+        <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>18.49</v>
+        <v>18.7</v>
       </c>
       <c r="D111" t="n">
-        <v>18.85</v>
+        <v>18.7</v>
       </c>
       <c r="E111" t="n">
-        <v>18.49</v>
+        <v>17.89</v>
       </c>
       <c r="F111" t="n">
-        <v>130495.3589086249</v>
+        <v>46935.7854</v>
       </c>
       <c r="G111" t="n">
-        <v>16.82850000000001</v>
+        <v>16.80150000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C112" t="n">
         <v>18.49</v>
       </c>
-      <c r="C112" t="n">
-        <v>18.6</v>
-      </c>
       <c r="D112" t="n">
-        <v>18.6</v>
+        <v>18.85</v>
       </c>
       <c r="E112" t="n">
-        <v>18.2</v>
+        <v>18.49</v>
       </c>
       <c r="F112" t="n">
-        <v>71384.40053888588</v>
+        <v>130495.3589086249</v>
       </c>
       <c r="G112" t="n">
-        <v>16.84883333333334</v>
+        <v>16.82850000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="C113" t="n">
         <v>18.6</v>
       </c>
-      <c r="C113" t="n">
-        <v>18.8</v>
-      </c>
       <c r="D113" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="E113" t="n">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="F113" t="n">
-        <v>162913.0183524892</v>
+        <v>71384.40053888588</v>
       </c>
       <c r="G113" t="n">
-        <v>16.87250000000001</v>
+        <v>16.84883333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C114" t="n">
         <v>18.8</v>
       </c>
-      <c r="C114" t="n">
-        <v>18.82</v>
-      </c>
       <c r="D114" t="n">
-        <v>18.85</v>
+        <v>18.8</v>
       </c>
       <c r="E114" t="n">
-        <v>18.12</v>
+        <v>18.6</v>
       </c>
       <c r="F114" t="n">
-        <v>199979.3478</v>
+        <v>162913.0183524892</v>
       </c>
       <c r="G114" t="n">
-        <v>16.89616666666668</v>
+        <v>16.87250000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>18.81</v>
+        <v>18.8</v>
       </c>
       <c r="C115" t="n">
-        <v>18.69</v>
+        <v>18.82</v>
       </c>
       <c r="D115" t="n">
-        <v>18.82</v>
+        <v>18.85</v>
       </c>
       <c r="E115" t="n">
-        <v>17.9</v>
+        <v>18.12</v>
       </c>
       <c r="F115" t="n">
-        <v>183625.3204</v>
+        <v>199979.3478</v>
       </c>
       <c r="G115" t="n">
-        <v>16.93100000000001</v>
+        <v>16.89616666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>18.11</v>
+        <v>18.81</v>
       </c>
       <c r="C116" t="n">
-        <v>18.11</v>
+        <v>18.69</v>
       </c>
       <c r="D116" t="n">
-        <v>18.11</v>
+        <v>18.82</v>
       </c>
       <c r="E116" t="n">
-        <v>18.11</v>
+        <v>17.9</v>
       </c>
       <c r="F116" t="n">
-        <v>15268.3587</v>
+        <v>183625.3204</v>
       </c>
       <c r="G116" t="n">
-        <v>16.98883333333335</v>
+        <v>16.93100000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>18.49</v>
+        <v>18.11</v>
       </c>
       <c r="C117" t="n">
-        <v>18.49</v>
+        <v>18.11</v>
       </c>
       <c r="D117" t="n">
-        <v>18.5</v>
+        <v>18.11</v>
       </c>
       <c r="E117" t="n">
-        <v>18.49</v>
+        <v>18.11</v>
       </c>
       <c r="F117" t="n">
-        <v>21912.5632</v>
+        <v>15268.3587</v>
       </c>
       <c r="G117" t="n">
-        <v>17.01533333333334</v>
+        <v>16.98883333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="C118" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="D118" t="n">
         <v>18.5</v>
       </c>
-      <c r="C118" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>18.8</v>
-      </c>
       <c r="E118" t="n">
-        <v>18.5</v>
+        <v>18.49</v>
       </c>
       <c r="F118" t="n">
-        <v>29684.601</v>
+        <v>21912.5632</v>
       </c>
       <c r="G118" t="n">
-        <v>17.07033333333334</v>
+        <v>17.01533333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C119" t="n">
         <v>18.8</v>
       </c>
-      <c r="C119" t="n">
-        <v>18.51</v>
-      </c>
       <c r="D119" t="n">
-        <v>18.85</v>
+        <v>18.8</v>
       </c>
       <c r="E119" t="n">
         <v>18.5</v>
       </c>
       <c r="F119" t="n">
-        <v>85679.9574</v>
+        <v>29684.601</v>
       </c>
       <c r="G119" t="n">
-        <v>17.11166666666668</v>
+        <v>17.07033333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="D120" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="E120" t="n">
         <v>18.5</v>
       </c>
-      <c r="C120" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>18.02</v>
-      </c>
       <c r="F120" t="n">
-        <v>65788.82060000001</v>
+        <v>85679.9574</v>
       </c>
       <c r="G120" t="n">
-        <v>17.14500000000001</v>
+        <v>17.11166666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C121" t="n">
         <v>18.2</v>
       </c>
-      <c r="C121" t="n">
-        <v>18.79</v>
-      </c>
       <c r="D121" t="n">
-        <v>18.79</v>
+        <v>18.5</v>
       </c>
       <c r="E121" t="n">
-        <v>18.12</v>
+        <v>18.02</v>
       </c>
       <c r="F121" t="n">
-        <v>24213.4231</v>
+        <v>65788.82060000001</v>
       </c>
       <c r="G121" t="n">
-        <v>17.18450000000001</v>
+        <v>17.14500000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="C122" t="n">
-        <v>18.4</v>
+        <v>18.79</v>
       </c>
       <c r="D122" t="n">
-        <v>18.4</v>
+        <v>18.79</v>
       </c>
       <c r="E122" t="n">
-        <v>18.29</v>
+        <v>18.12</v>
       </c>
       <c r="F122" t="n">
-        <v>88904.88959999999</v>
+        <v>24213.4231</v>
       </c>
       <c r="G122" t="n">
-        <v>17.22466666666668</v>
+        <v>17.18450000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>18.38</v>
+        <v>18.4</v>
       </c>
       <c r="C123" t="n">
-        <v>18.36</v>
+        <v>18.4</v>
       </c>
       <c r="D123" t="n">
-        <v>18.38</v>
+        <v>18.4</v>
       </c>
       <c r="E123" t="n">
-        <v>18.36</v>
+        <v>18.29</v>
       </c>
       <c r="F123" t="n">
-        <v>56714.6829</v>
+        <v>88904.88959999999</v>
       </c>
       <c r="G123" t="n">
-        <v>17.26416666666668</v>
+        <v>17.22466666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>18.13</v>
+        <v>18.38</v>
       </c>
       <c r="C124" t="n">
-        <v>18.12</v>
+        <v>18.36</v>
       </c>
       <c r="D124" t="n">
-        <v>18.13</v>
+        <v>18.38</v>
       </c>
       <c r="E124" t="n">
-        <v>18.12</v>
+        <v>18.36</v>
       </c>
       <c r="F124" t="n">
-        <v>55276.7018</v>
+        <v>56714.6829</v>
       </c>
       <c r="G124" t="n">
-        <v>17.29966666666667</v>
+        <v>17.26416666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,10 +4754,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="C125" t="n">
         <v>18.12</v>
-      </c>
-      <c r="C125" t="n">
-        <v>18.13</v>
       </c>
       <c r="D125" t="n">
         <v>18.13</v>
@@ -4750,10 +4766,10 @@
         <v>18.12</v>
       </c>
       <c r="F125" t="n">
-        <v>28004.8437</v>
+        <v>55276.7018</v>
       </c>
       <c r="G125" t="n">
-        <v>17.33516666666668</v>
+        <v>17.29966666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>18.33</v>
+        <v>18.12</v>
       </c>
       <c r="C126" t="n">
-        <v>17.8</v>
+        <v>18.13</v>
       </c>
       <c r="D126" t="n">
-        <v>18.33</v>
+        <v>18.13</v>
       </c>
       <c r="E126" t="n">
-        <v>17.8</v>
+        <v>18.12</v>
       </c>
       <c r="F126" t="n">
-        <v>49605.7453</v>
+        <v>28004.8437</v>
       </c>
       <c r="G126" t="n">
-        <v>17.38183333333334</v>
+        <v>17.33516666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>18</v>
+        <v>18.33</v>
       </c>
       <c r="C127" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="D127" t="n">
-        <v>18</v>
+        <v>18.33</v>
       </c>
       <c r="E127" t="n">
-        <v>17.68</v>
+        <v>17.8</v>
       </c>
       <c r="F127" t="n">
-        <v>53853.8443</v>
+        <v>49605.7453</v>
       </c>
       <c r="G127" t="n">
-        <v>17.40183333333334</v>
+        <v>17.38183333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>18</v>
+      </c>
+      <c r="C128" t="n">
         <v>17.9</v>
       </c>
-      <c r="C128" t="n">
-        <v>17.63</v>
-      </c>
       <c r="D128" t="n">
-        <v>18.12</v>
+        <v>18</v>
       </c>
       <c r="E128" t="n">
-        <v>17.63</v>
+        <v>17.68</v>
       </c>
       <c r="F128" t="n">
-        <v>145805.606</v>
+        <v>53853.8443</v>
       </c>
       <c r="G128" t="n">
-        <v>17.43733333333335</v>
+        <v>17.40183333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4894,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>18.12</v>
+        <v>17.9</v>
       </c>
       <c r="C129" t="n">
         <v>17.63</v>
@@ -4890,10 +4906,10 @@
         <v>17.63</v>
       </c>
       <c r="F129" t="n">
-        <v>32931.38</v>
+        <v>145805.606</v>
       </c>
       <c r="G129" t="n">
-        <v>17.45450000000001</v>
+        <v>17.43733333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>18</v>
+        <v>18.12</v>
       </c>
       <c r="C130" t="n">
         <v>17.63</v>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>18.12</v>
       </c>
       <c r="E130" t="n">
-        <v>17.62</v>
+        <v>17.63</v>
       </c>
       <c r="F130" t="n">
-        <v>44811.3645</v>
+        <v>32931.38</v>
       </c>
       <c r="G130" t="n">
-        <v>17.47833333333335</v>
+        <v>17.45450000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>17.99</v>
+        <v>18</v>
       </c>
       <c r="C131" t="n">
-        <v>17.62</v>
+        <v>17.63</v>
       </c>
       <c r="D131" t="n">
-        <v>17.99</v>
+        <v>18</v>
       </c>
       <c r="E131" t="n">
         <v>17.62</v>
       </c>
       <c r="F131" t="n">
-        <v>37861.2922</v>
+        <v>44811.3645</v>
       </c>
       <c r="G131" t="n">
-        <v>17.50233333333335</v>
+        <v>17.47833333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>17.64</v>
+        <v>17.99</v>
       </c>
       <c r="C132" t="n">
-        <v>17.64</v>
+        <v>17.62</v>
       </c>
       <c r="D132" t="n">
-        <v>17.64</v>
+        <v>17.99</v>
       </c>
       <c r="E132" t="n">
-        <v>17.64</v>
+        <v>17.62</v>
       </c>
       <c r="F132" t="n">
-        <v>4935.421</v>
+        <v>37861.2922</v>
       </c>
       <c r="G132" t="n">
-        <v>17.52950000000002</v>
+        <v>17.50233333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5037,19 @@
         <v>17.64</v>
       </c>
       <c r="C133" t="n">
-        <v>17.44</v>
+        <v>17.64</v>
       </c>
       <c r="D133" t="n">
         <v>17.64</v>
       </c>
       <c r="E133" t="n">
-        <v>17.44</v>
+        <v>17.64</v>
       </c>
       <c r="F133" t="n">
-        <v>44413.2336</v>
+        <v>4935.421</v>
       </c>
       <c r="G133" t="n">
-        <v>17.56500000000002</v>
+        <v>17.52950000000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>16.92</v>
+        <v>17.64</v>
       </c>
       <c r="C134" t="n">
-        <v>17.2</v>
+        <v>17.44</v>
       </c>
       <c r="D134" t="n">
-        <v>17.2</v>
+        <v>17.64</v>
       </c>
       <c r="E134" t="n">
-        <v>16.75</v>
+        <v>17.44</v>
       </c>
       <c r="F134" t="n">
-        <v>138146.2049</v>
+        <v>44413.2336</v>
       </c>
       <c r="G134" t="n">
-        <v>17.58500000000002</v>
+        <v>17.56500000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="C135" t="n">
         <v>17.2</v>
-      </c>
-      <c r="C135" t="n">
-        <v>16.75</v>
       </c>
       <c r="D135" t="n">
         <v>17.2</v>
       </c>
       <c r="E135" t="n">
-        <v>16.6</v>
+        <v>16.75</v>
       </c>
       <c r="F135" t="n">
-        <v>48951.8495</v>
+        <v>138146.2049</v>
       </c>
       <c r="G135" t="n">
-        <v>17.60000000000002</v>
+        <v>17.58500000000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C136" t="n">
         <v>16.75</v>
       </c>
-      <c r="C136" t="n">
-        <v>16.55</v>
-      </c>
       <c r="D136" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="E136" t="n">
-        <v>16.55</v>
+        <v>16.6</v>
       </c>
       <c r="F136" t="n">
-        <v>304683.2125</v>
+        <v>48951.8495</v>
       </c>
       <c r="G136" t="n">
-        <v>17.61216666666668</v>
+        <v>17.60000000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C137" t="n">
         <v>16.55</v>
       </c>
-      <c r="C137" t="n">
-        <v>16.6</v>
-      </c>
       <c r="D137" t="n">
-        <v>16.74</v>
+        <v>17</v>
       </c>
       <c r="E137" t="n">
-        <v>16.36</v>
+        <v>16.55</v>
       </c>
       <c r="F137" t="n">
-        <v>282899.9559</v>
+        <v>304683.2125</v>
       </c>
       <c r="G137" t="n">
-        <v>17.62700000000002</v>
+        <v>17.61216666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16.73</v>
+        <v>16.55</v>
       </c>
       <c r="C138" t="n">
-        <v>17.96</v>
+        <v>16.6</v>
       </c>
       <c r="D138" t="n">
-        <v>17.96</v>
+        <v>16.74</v>
       </c>
       <c r="E138" t="n">
-        <v>16.72</v>
+        <v>16.36</v>
       </c>
       <c r="F138" t="n">
-        <v>28507.0264</v>
+        <v>282899.9559</v>
       </c>
       <c r="G138" t="n">
-        <v>17.66200000000002</v>
+        <v>17.62700000000002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,31 +5244,35 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>17.63</v>
+        <v>16.73</v>
       </c>
       <c r="C139" t="n">
-        <v>16.9</v>
+        <v>17.96</v>
       </c>
       <c r="D139" t="n">
-        <v>17.63</v>
+        <v>17.96</v>
       </c>
       <c r="E139" t="n">
-        <v>16.9</v>
+        <v>16.72</v>
       </c>
       <c r="F139" t="n">
-        <v>86583.1557</v>
+        <v>28507.0264</v>
       </c>
       <c r="G139" t="n">
-        <v>17.68866666666669</v>
+        <v>17.66200000000002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16.6</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5263,22 +5283,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16.77</v>
+        <v>17.63</v>
       </c>
       <c r="C140" t="n">
         <v>16.9</v>
       </c>
       <c r="D140" t="n">
-        <v>17.1</v>
+        <v>17.63</v>
       </c>
       <c r="E140" t="n">
-        <v>16.77</v>
+        <v>16.9</v>
       </c>
       <c r="F140" t="n">
-        <v>26737.5538</v>
+        <v>86583.1557</v>
       </c>
       <c r="G140" t="n">
-        <v>17.71533333333336</v>
+        <v>17.68866666666669</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5324,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="C141" t="n">
         <v>16.9</v>
       </c>
-      <c r="C141" t="n">
-        <v>16.89</v>
-      </c>
       <c r="D141" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="E141" t="n">
-        <v>16.8</v>
+        <v>16.77</v>
       </c>
       <c r="F141" t="n">
-        <v>2280</v>
+        <v>26737.5538</v>
       </c>
       <c r="G141" t="n">
-        <v>17.72850000000003</v>
+        <v>17.71533333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5336,19 +5368,19 @@
         <v>16.9</v>
       </c>
       <c r="C142" t="n">
-        <v>16.9</v>
+        <v>16.89</v>
       </c>
       <c r="D142" t="n">
         <v>16.9</v>
       </c>
       <c r="E142" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F142" t="n">
-        <v>206369.6900905917</v>
+        <v>2280</v>
       </c>
       <c r="G142" t="n">
-        <v>17.74183333333336</v>
+        <v>17.72850000000003</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5400,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16.99</v>
+        <v>16.9</v>
       </c>
       <c r="C143" t="n">
-        <v>16.99</v>
+        <v>16.9</v>
       </c>
       <c r="D143" t="n">
-        <v>16.99</v>
+        <v>16.9</v>
       </c>
       <c r="E143" t="n">
-        <v>16.99</v>
+        <v>16.7</v>
       </c>
       <c r="F143" t="n">
-        <v>422.8565</v>
+        <v>206369.6900905917</v>
       </c>
       <c r="G143" t="n">
-        <v>17.75533333333336</v>
+        <v>17.74183333333336</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5435,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16.7</v>
+        <v>16.99</v>
       </c>
       <c r="C144" t="n">
-        <v>16.61</v>
+        <v>16.99</v>
       </c>
       <c r="D144" t="n">
-        <v>16.8</v>
+        <v>16.99</v>
       </c>
       <c r="E144" t="n">
-        <v>16.61</v>
+        <v>16.99</v>
       </c>
       <c r="F144" t="n">
-        <v>239017.3624</v>
+        <v>422.8565</v>
       </c>
       <c r="G144" t="n">
-        <v>17.75716666666669</v>
+        <v>17.75533333333336</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5470,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>16.53</v>
+        <v>16.7</v>
       </c>
       <c r="C145" t="n">
-        <v>17.5</v>
+        <v>16.61</v>
       </c>
       <c r="D145" t="n">
-        <v>17.5</v>
+        <v>16.8</v>
       </c>
       <c r="E145" t="n">
-        <v>16.53</v>
+        <v>16.61</v>
       </c>
       <c r="F145" t="n">
-        <v>58093.5699</v>
+        <v>239017.3624</v>
       </c>
       <c r="G145" t="n">
-        <v>17.77383333333336</v>
+        <v>17.75716666666669</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5505,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>17.74</v>
+        <v>16.53</v>
       </c>
       <c r="C146" t="n">
-        <v>17.74</v>
+        <v>17.5</v>
       </c>
       <c r="D146" t="n">
-        <v>17.74</v>
+        <v>17.5</v>
       </c>
       <c r="E146" t="n">
-        <v>17.74</v>
+        <v>16.53</v>
       </c>
       <c r="F146" t="n">
-        <v>39</v>
+        <v>58093.5699</v>
       </c>
       <c r="G146" t="n">
-        <v>17.77800000000003</v>
+        <v>17.77383333333336</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5540,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>17.73</v>
+        <v>17.74</v>
       </c>
       <c r="C147" t="n">
-        <v>17.71</v>
+        <v>17.74</v>
       </c>
       <c r="D147" t="n">
-        <v>17.73</v>
+        <v>17.74</v>
       </c>
       <c r="E147" t="n">
-        <v>17.63</v>
+        <v>17.74</v>
       </c>
       <c r="F147" t="n">
-        <v>136833.5711</v>
+        <v>39</v>
       </c>
       <c r="G147" t="n">
-        <v>17.78216666666669</v>
+        <v>17.77800000000003</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5575,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>17.54</v>
+        <v>17.73</v>
       </c>
       <c r="C148" t="n">
-        <v>17.49</v>
+        <v>17.71</v>
       </c>
       <c r="D148" t="n">
-        <v>17.54</v>
+        <v>17.73</v>
       </c>
       <c r="E148" t="n">
-        <v>17.49</v>
+        <v>17.63</v>
       </c>
       <c r="F148" t="n">
-        <v>6732.3505</v>
+        <v>136833.5711</v>
       </c>
       <c r="G148" t="n">
-        <v>17.78200000000003</v>
+        <v>17.78216666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5610,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>17.48</v>
+        <v>17.54</v>
       </c>
       <c r="C149" t="n">
-        <v>17.68</v>
+        <v>17.49</v>
       </c>
       <c r="D149" t="n">
-        <v>17.74</v>
+        <v>17.54</v>
       </c>
       <c r="E149" t="n">
-        <v>17.45</v>
+        <v>17.49</v>
       </c>
       <c r="F149" t="n">
-        <v>11096</v>
+        <v>6732.3505</v>
       </c>
       <c r="G149" t="n">
-        <v>17.78666666666669</v>
+        <v>17.78200000000003</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5645,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>17.63</v>
+        <v>17.48</v>
       </c>
       <c r="C150" t="n">
-        <v>17.72</v>
+        <v>17.68</v>
       </c>
       <c r="D150" t="n">
         <v>17.74</v>
       </c>
       <c r="E150" t="n">
-        <v>17.63</v>
+        <v>17.45</v>
       </c>
       <c r="F150" t="n">
-        <v>90</v>
+        <v>11096</v>
       </c>
       <c r="G150" t="n">
-        <v>17.8176666666667</v>
+        <v>17.78666666666669</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5680,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>17.71</v>
+        <v>17.63</v>
       </c>
       <c r="C151" t="n">
-        <v>17.14</v>
+        <v>17.72</v>
       </c>
       <c r="D151" t="n">
-        <v>17.71</v>
+        <v>17.74</v>
       </c>
       <c r="E151" t="n">
-        <v>17.1</v>
+        <v>17.63</v>
       </c>
       <c r="F151" t="n">
-        <v>81036.0456</v>
+        <v>90</v>
       </c>
       <c r="G151" t="n">
-        <v>17.8126666666667</v>
+        <v>17.8176666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5715,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="C152" t="n">
         <v>17.14</v>
       </c>
-      <c r="C152" t="n">
-        <v>17.1</v>
-      </c>
       <c r="D152" t="n">
-        <v>17.59</v>
+        <v>17.71</v>
       </c>
       <c r="E152" t="n">
         <v>17.1</v>
       </c>
       <c r="F152" t="n">
-        <v>42742.0045</v>
+        <v>81036.0456</v>
       </c>
       <c r="G152" t="n">
-        <v>17.80700000000003</v>
+        <v>17.8126666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5750,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="C153" t="n">
         <v>17.1</v>
       </c>
-      <c r="C153" t="n">
-        <v>16.74</v>
-      </c>
       <c r="D153" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="E153" t="n">
         <v>17.1</v>
       </c>
-      <c r="E153" t="n">
-        <v>16.74</v>
-      </c>
       <c r="F153" t="n">
-        <v>96808.6379</v>
+        <v>42742.0045</v>
       </c>
       <c r="G153" t="n">
-        <v>17.7856666666667</v>
+        <v>17.80700000000003</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5785,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>17.09</v>
+        <v>17.1</v>
       </c>
       <c r="C154" t="n">
-        <v>16.9</v>
+        <v>16.74</v>
       </c>
       <c r="D154" t="n">
-        <v>17.09</v>
+        <v>17.1</v>
       </c>
       <c r="E154" t="n">
-        <v>16.8</v>
+        <v>16.74</v>
       </c>
       <c r="F154" t="n">
-        <v>2386.6121</v>
+        <v>96808.6379</v>
       </c>
       <c r="G154" t="n">
-        <v>17.76400000000003</v>
+        <v>17.7856666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5820,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>16.67</v>
+        <v>17.09</v>
       </c>
       <c r="C155" t="n">
-        <v>17.05</v>
+        <v>16.9</v>
       </c>
       <c r="D155" t="n">
-        <v>17.58</v>
+        <v>17.09</v>
       </c>
       <c r="E155" t="n">
-        <v>16.67</v>
+        <v>16.8</v>
       </c>
       <c r="F155" t="n">
-        <v>114982.844</v>
+        <v>2386.6121</v>
       </c>
       <c r="G155" t="n">
-        <v>17.7781666666667</v>
+        <v>17.76400000000003</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5855,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>17.53</v>
+        <v>16.67</v>
       </c>
       <c r="C156" t="n">
-        <v>17.2</v>
+        <v>17.05</v>
       </c>
       <c r="D156" t="n">
-        <v>17.53</v>
+        <v>17.58</v>
       </c>
       <c r="E156" t="n">
-        <v>17.2</v>
+        <v>16.67</v>
       </c>
       <c r="F156" t="n">
-        <v>278</v>
+        <v>114982.844</v>
       </c>
       <c r="G156" t="n">
-        <v>17.78783333333336</v>
+        <v>17.7781666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5890,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>17.47</v>
+        <v>17.53</v>
       </c>
       <c r="C157" t="n">
-        <v>17.14</v>
+        <v>17.2</v>
       </c>
       <c r="D157" t="n">
-        <v>17.47</v>
+        <v>17.53</v>
       </c>
       <c r="E157" t="n">
-        <v>17.14</v>
+        <v>17.2</v>
       </c>
       <c r="F157" t="n">
-        <v>43644.6642</v>
+        <v>278</v>
       </c>
       <c r="G157" t="n">
-        <v>17.77583333333337</v>
+        <v>17.78783333333336</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5925,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>17.13</v>
+        <v>17.47</v>
       </c>
       <c r="C158" t="n">
-        <v>17.23</v>
+        <v>17.14</v>
       </c>
       <c r="D158" t="n">
-        <v>17.39</v>
+        <v>17.47</v>
       </c>
       <c r="E158" t="n">
-        <v>17.12</v>
+        <v>17.14</v>
       </c>
       <c r="F158" t="n">
-        <v>329.6697</v>
+        <v>43644.6642</v>
       </c>
       <c r="G158" t="n">
-        <v>17.77083333333337</v>
+        <v>17.77583333333337</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5960,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>17.39</v>
+        <v>17.13</v>
       </c>
       <c r="C159" t="n">
-        <v>17.39</v>
+        <v>17.23</v>
       </c>
       <c r="D159" t="n">
         <v>17.39</v>
       </c>
       <c r="E159" t="n">
-        <v>17.39</v>
+        <v>17.12</v>
       </c>
       <c r="F159" t="n">
-        <v>30</v>
+        <v>329.6697</v>
       </c>
       <c r="G159" t="n">
-        <v>17.76083333333337</v>
+        <v>17.77083333333337</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5995,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>17.34</v>
+        <v>17.39</v>
       </c>
       <c r="C160" t="n">
-        <v>17.32</v>
+        <v>17.39</v>
       </c>
       <c r="D160" t="n">
-        <v>17.34</v>
+        <v>17.39</v>
       </c>
       <c r="E160" t="n">
-        <v>17.32</v>
+        <v>17.39</v>
       </c>
       <c r="F160" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G160" t="n">
-        <v>17.7491666666667</v>
+        <v>17.76083333333337</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6030,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>17.3</v>
+        <v>17.34</v>
       </c>
       <c r="C161" t="n">
-        <v>17.28</v>
+        <v>17.32</v>
       </c>
       <c r="D161" t="n">
-        <v>17.3</v>
+        <v>17.34</v>
       </c>
       <c r="E161" t="n">
-        <v>16.8</v>
+        <v>17.32</v>
       </c>
       <c r="F161" t="n">
-        <v>63697.1914</v>
+        <v>60</v>
       </c>
       <c r="G161" t="n">
-        <v>17.7441666666667</v>
+        <v>17.7491666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6065,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>17.14</v>
+        <v>17.3</v>
       </c>
       <c r="C162" t="n">
-        <v>17.24</v>
+        <v>17.28</v>
       </c>
       <c r="D162" t="n">
-        <v>17.24</v>
+        <v>17.3</v>
       </c>
       <c r="E162" t="n">
-        <v>17.14</v>
+        <v>16.8</v>
       </c>
       <c r="F162" t="n">
-        <v>90</v>
+        <v>63697.1914</v>
       </c>
       <c r="G162" t="n">
-        <v>17.73000000000004</v>
+        <v>17.7441666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6100,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>17.17</v>
+        <v>17.14</v>
       </c>
       <c r="C163" t="n">
-        <v>17.09</v>
+        <v>17.24</v>
       </c>
       <c r="D163" t="n">
-        <v>17.17</v>
+        <v>17.24</v>
       </c>
       <c r="E163" t="n">
-        <v>17.09</v>
+        <v>17.14</v>
       </c>
       <c r="F163" t="n">
-        <v>5466.346</v>
+        <v>90</v>
       </c>
       <c r="G163" t="n">
-        <v>17.71483333333337</v>
+        <v>17.73000000000004</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6135,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>17.05</v>
+        <v>17.17</v>
       </c>
       <c r="C164" t="n">
-        <v>17.04</v>
+        <v>17.09</v>
       </c>
       <c r="D164" t="n">
-        <v>17.05</v>
+        <v>17.17</v>
       </c>
       <c r="E164" t="n">
-        <v>16.71</v>
+        <v>17.09</v>
       </c>
       <c r="F164" t="n">
-        <v>53815.4977</v>
+        <v>5466.346</v>
       </c>
       <c r="G164" t="n">
-        <v>17.68433333333337</v>
+        <v>17.71483333333337</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6170,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="C165" t="n">
-        <v>16.8</v>
+        <v>17.04</v>
       </c>
       <c r="D165" t="n">
-        <v>17</v>
+        <v>17.05</v>
       </c>
       <c r="E165" t="n">
-        <v>16.72</v>
+        <v>16.71</v>
       </c>
       <c r="F165" t="n">
-        <v>46214.56768823529</v>
+        <v>53815.4977</v>
       </c>
       <c r="G165" t="n">
-        <v>17.65000000000004</v>
+        <v>17.68433333333337</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6205,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>16.78</v>
+        <v>16.9</v>
       </c>
       <c r="C166" t="n">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="D166" t="n">
-        <v>16.89</v>
+        <v>17</v>
       </c>
       <c r="E166" t="n">
-        <v>16.71</v>
+        <v>16.72</v>
       </c>
       <c r="F166" t="n">
-        <v>33952.1999</v>
+        <v>46214.56768823529</v>
       </c>
       <c r="G166" t="n">
-        <v>17.62483333333337</v>
+        <v>17.65000000000004</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6240,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>16.71</v>
+        <v>16.78</v>
       </c>
       <c r="C167" t="n">
-        <v>17.2</v>
+        <v>16.89</v>
       </c>
       <c r="D167" t="n">
-        <v>17.2</v>
+        <v>16.89</v>
       </c>
       <c r="E167" t="n">
         <v>16.71</v>
       </c>
       <c r="F167" t="n">
-        <v>112493.8209</v>
+        <v>33952.1999</v>
       </c>
       <c r="G167" t="n">
-        <v>17.60483333333337</v>
+        <v>17.62483333333337</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6275,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>17.2</v>
+        <v>16.71</v>
       </c>
       <c r="C168" t="n">
         <v>17.2</v>
       </c>
       <c r="D168" t="n">
-        <v>17.27</v>
+        <v>17.2</v>
       </c>
       <c r="E168" t="n">
-        <v>17.1</v>
+        <v>16.71</v>
       </c>
       <c r="F168" t="n">
-        <v>6149.5056</v>
+        <v>112493.8209</v>
       </c>
       <c r="G168" t="n">
-        <v>17.5971666666667</v>
+        <v>17.60483333333337</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6313,19 @@
         <v>17.2</v>
       </c>
       <c r="C169" t="n">
-        <v>17.02</v>
+        <v>17.2</v>
       </c>
       <c r="D169" t="n">
-        <v>17.2</v>
+        <v>17.27</v>
       </c>
       <c r="E169" t="n">
-        <v>17.02</v>
+        <v>17.1</v>
       </c>
       <c r="F169" t="n">
-        <v>43146.2274</v>
+        <v>6149.5056</v>
       </c>
       <c r="G169" t="n">
-        <v>17.5726666666667</v>
+        <v>17.5971666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6345,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="C170" t="n">
-        <v>16.9</v>
+        <v>17.02</v>
       </c>
       <c r="D170" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="E170" t="n">
-        <v>16.9</v>
+        <v>17.02</v>
       </c>
       <c r="F170" t="n">
-        <v>13817.5088</v>
+        <v>43146.2274</v>
       </c>
       <c r="G170" t="n">
-        <v>17.5426666666667</v>
+        <v>17.5726666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6380,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>16.81</v>
+        <v>16.9</v>
       </c>
       <c r="C171" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="D171" t="n">
-        <v>16.81</v>
+        <v>16.9</v>
       </c>
       <c r="E171" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="F171" t="n">
-        <v>65878.8888</v>
+        <v>13817.5088</v>
       </c>
       <c r="G171" t="n">
-        <v>17.51283333333337</v>
+        <v>17.5426666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6415,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>16.69</v>
+        <v>16.81</v>
       </c>
       <c r="C172" t="n">
-        <v>16.69</v>
+        <v>16.7</v>
       </c>
       <c r="D172" t="n">
-        <v>16.69</v>
+        <v>16.81</v>
       </c>
       <c r="E172" t="n">
-        <v>16.69</v>
+        <v>16.7</v>
       </c>
       <c r="F172" t="n">
-        <v>31979.1891</v>
+        <v>65878.8888</v>
       </c>
       <c r="G172" t="n">
-        <v>17.48100000000004</v>
+        <v>17.51283333333337</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6450,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>16.9</v>
+        <v>16.69</v>
       </c>
       <c r="C173" t="n">
-        <v>16.9</v>
+        <v>16.69</v>
       </c>
       <c r="D173" t="n">
-        <v>16.9</v>
+        <v>16.69</v>
       </c>
       <c r="E173" t="n">
-        <v>16.9</v>
+        <v>16.69</v>
       </c>
       <c r="F173" t="n">
-        <v>100</v>
+        <v>31979.1891</v>
       </c>
       <c r="G173" t="n">
-        <v>17.44933333333337</v>
+        <v>17.48100000000004</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6488,19 @@
         <v>16.9</v>
       </c>
       <c r="C174" t="n">
-        <v>16.99</v>
+        <v>16.9</v>
       </c>
       <c r="D174" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="E174" t="n">
         <v>16.9</v>
       </c>
       <c r="F174" t="n">
-        <v>12477.2774</v>
+        <v>100</v>
       </c>
       <c r="G174" t="n">
-        <v>17.41883333333338</v>
+        <v>17.44933333333337</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6520,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>16.91</v>
+        <v>16.9</v>
       </c>
       <c r="C175" t="n">
-        <v>16.9</v>
+        <v>16.99</v>
       </c>
       <c r="D175" t="n">
-        <v>16.91</v>
+        <v>17</v>
       </c>
       <c r="E175" t="n">
         <v>16.9</v>
       </c>
       <c r="F175" t="n">
-        <v>3541.6832</v>
+        <v>12477.2774</v>
       </c>
       <c r="G175" t="n">
-        <v>17.38900000000005</v>
+        <v>17.41883333333338</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6555,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="C176" t="n">
         <v>16.9</v>
       </c>
-      <c r="C176" t="n">
-        <v>16.69</v>
-      </c>
       <c r="D176" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="E176" t="n">
         <v>16.9</v>
       </c>
-      <c r="E176" t="n">
-        <v>16.68</v>
-      </c>
       <c r="F176" t="n">
-        <v>39865.892</v>
+        <v>3541.6832</v>
       </c>
       <c r="G176" t="n">
-        <v>17.36533333333338</v>
+        <v>17.38900000000005</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6590,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="C177" t="n">
-        <v>16.8</v>
+        <v>16.69</v>
       </c>
       <c r="D177" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="E177" t="n">
-        <v>16.8</v>
+        <v>16.68</v>
       </c>
       <c r="F177" t="n">
-        <v>6027.7598</v>
+        <v>39865.892</v>
       </c>
       <c r="G177" t="n">
-        <v>17.33716666666671</v>
+        <v>17.36533333333338</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,38 +6625,32 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>16.79</v>
+        <v>16.8</v>
       </c>
       <c r="C178" t="n">
-        <v>16.65</v>
+        <v>16.8</v>
       </c>
       <c r="D178" t="n">
-        <v>16.79</v>
+        <v>16.8</v>
       </c>
       <c r="E178" t="n">
-        <v>16.65</v>
+        <v>16.8</v>
       </c>
       <c r="F178" t="n">
-        <v>30929.3838</v>
+        <v>6027.7598</v>
       </c>
       <c r="G178" t="n">
-        <v>17.30133333333338</v>
+        <v>17.33716666666671</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6634,38 +6660,32 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>16.7</v>
+        <v>16.79</v>
       </c>
       <c r="C179" t="n">
-        <v>16.78</v>
+        <v>16.65</v>
       </c>
       <c r="D179" t="n">
-        <v>16.78</v>
+        <v>16.79</v>
       </c>
       <c r="E179" t="n">
-        <v>16.7</v>
+        <v>16.65</v>
       </c>
       <c r="F179" t="n">
-        <v>136142.2979</v>
+        <v>30929.3838</v>
       </c>
       <c r="G179" t="n">
-        <v>17.27250000000005</v>
+        <v>17.30133333333338</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>16.65</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6675,38 +6695,32 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="C180" t="n">
-        <v>16.8</v>
+        <v>16.78</v>
       </c>
       <c r="D180" t="n">
-        <v>16.8</v>
+        <v>16.78</v>
       </c>
       <c r="E180" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="F180" t="n">
-        <v>5006.1291</v>
+        <v>136142.2979</v>
       </c>
       <c r="G180" t="n">
-        <v>17.24916666666671</v>
+        <v>17.27250000000005</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>16.78</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6716,38 +6730,32 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>16.94</v>
+        <v>16.8</v>
       </c>
       <c r="C181" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="D181" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="E181" t="n">
-        <v>16.94</v>
+        <v>16.8</v>
       </c>
       <c r="F181" t="n">
-        <v>5828.5748</v>
+        <v>5006.1291</v>
       </c>
       <c r="G181" t="n">
-        <v>17.22266666666671</v>
+        <v>17.24916666666671</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,22 +6765,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="C182" t="n">
         <v>17.2</v>
       </c>
-      <c r="C182" t="n">
-        <v>17.21</v>
-      </c>
       <c r="D182" t="n">
-        <v>17.21</v>
+        <v>17.2</v>
       </c>
       <c r="E182" t="n">
-        <v>17.2</v>
+        <v>16.94</v>
       </c>
       <c r="F182" t="n">
-        <v>67627.95819999999</v>
+        <v>5828.5748</v>
       </c>
       <c r="G182" t="n">
-        <v>17.20283333333338</v>
+        <v>17.22266666666671</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6782,11 +6790,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>17.21</v>
+        <v>17.2</v>
       </c>
       <c r="C183" t="n">
         <v>17.21</v>
@@ -6805,13 +6809,13 @@
         <v>17.21</v>
       </c>
       <c r="E183" t="n">
-        <v>17.21</v>
+        <v>17.2</v>
       </c>
       <c r="F183" t="n">
-        <v>119831.6469</v>
+        <v>67627.95819999999</v>
       </c>
       <c r="G183" t="n">
-        <v>17.18366666666672</v>
+        <v>17.20283333333338</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6821,11 +6825,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6838,19 +6838,19 @@
         <v>17.21</v>
       </c>
       <c r="C184" t="n">
-        <v>17.06</v>
+        <v>17.21</v>
       </c>
       <c r="D184" t="n">
         <v>17.21</v>
       </c>
       <c r="E184" t="n">
-        <v>17.06</v>
+        <v>17.21</v>
       </c>
       <c r="F184" t="n">
-        <v>21107.3047</v>
+        <v>119831.6469</v>
       </c>
       <c r="G184" t="n">
-        <v>17.16600000000005</v>
+        <v>17.18366666666672</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6860,11 +6860,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6874,22 +6870,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>17</v>
+        <v>17.21</v>
       </c>
       <c r="C185" t="n">
-        <v>17</v>
+        <v>17.06</v>
       </c>
       <c r="D185" t="n">
-        <v>17</v>
+        <v>17.21</v>
       </c>
       <c r="E185" t="n">
-        <v>17</v>
+        <v>17.06</v>
       </c>
       <c r="F185" t="n">
-        <v>1676.4873</v>
+        <v>21107.3047</v>
       </c>
       <c r="G185" t="n">
-        <v>17.14716666666671</v>
+        <v>17.16600000000005</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6899,11 +6895,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6913,22 +6905,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>16.83</v>
+        <v>17</v>
       </c>
       <c r="C186" t="n">
-        <v>16.83</v>
+        <v>17</v>
       </c>
       <c r="D186" t="n">
-        <v>16.83</v>
+        <v>17</v>
       </c>
       <c r="E186" t="n">
-        <v>16.83</v>
+        <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>1547.9535</v>
+        <v>1676.4873</v>
       </c>
       <c r="G186" t="n">
-        <v>17.13100000000005</v>
+        <v>17.14716666666671</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6938,11 +6930,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6964,10 +6952,10 @@
         <v>16.83</v>
       </c>
       <c r="F187" t="n">
-        <v>9905.405199999999</v>
+        <v>1547.9535</v>
       </c>
       <c r="G187" t="n">
-        <v>17.11316666666671</v>
+        <v>17.13100000000005</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6977,11 +6965,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6994,19 +6978,19 @@
         <v>16.83</v>
       </c>
       <c r="C188" t="n">
-        <v>16.69</v>
+        <v>16.83</v>
       </c>
       <c r="D188" t="n">
         <v>16.83</v>
       </c>
       <c r="E188" t="n">
-        <v>16.69</v>
+        <v>16.83</v>
       </c>
       <c r="F188" t="n">
-        <v>53225.575</v>
+        <v>9905.405199999999</v>
       </c>
       <c r="G188" t="n">
-        <v>17.09750000000004</v>
+        <v>17.11316666666671</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7016,11 +7000,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7030,22 +7010,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>16.78</v>
+        <v>16.83</v>
       </c>
       <c r="C189" t="n">
-        <v>16.78</v>
+        <v>16.69</v>
       </c>
       <c r="D189" t="n">
-        <v>16.78</v>
+        <v>16.83</v>
       </c>
       <c r="E189" t="n">
-        <v>16.78</v>
+        <v>16.69</v>
       </c>
       <c r="F189" t="n">
-        <v>8798.6203</v>
+        <v>53225.575</v>
       </c>
       <c r="G189" t="n">
-        <v>17.08333333333337</v>
+        <v>17.09750000000004</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7055,11 +7035,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7069,22 +7045,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>16.8</v>
+        <v>16.78</v>
       </c>
       <c r="C190" t="n">
-        <v>16.9</v>
+        <v>16.78</v>
       </c>
       <c r="D190" t="n">
-        <v>16.9</v>
+        <v>16.78</v>
       </c>
       <c r="E190" t="n">
-        <v>16.8</v>
+        <v>16.78</v>
       </c>
       <c r="F190" t="n">
-        <v>11101.9869</v>
+        <v>8798.6203</v>
       </c>
       <c r="G190" t="n">
-        <v>17.07116666666671</v>
+        <v>17.08333333333337</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7094,11 +7070,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7111,19 +7083,19 @@
         <v>16.8</v>
       </c>
       <c r="C191" t="n">
-        <v>16.51</v>
+        <v>16.9</v>
       </c>
       <c r="D191" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E191" t="n">
         <v>16.8</v>
       </c>
-      <c r="E191" t="n">
-        <v>16.51</v>
-      </c>
       <c r="F191" t="n">
-        <v>80389.86840000001</v>
+        <v>11101.9869</v>
       </c>
       <c r="G191" t="n">
-        <v>17.05266666666671</v>
+        <v>17.07116666666671</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7133,11 +7105,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7147,22 +7115,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>16.61</v>
+        <v>16.8</v>
       </c>
       <c r="C192" t="n">
-        <v>16.61</v>
+        <v>16.51</v>
       </c>
       <c r="D192" t="n">
-        <v>16.61</v>
+        <v>16.8</v>
       </c>
       <c r="E192" t="n">
-        <v>16.61</v>
+        <v>16.51</v>
       </c>
       <c r="F192" t="n">
-        <v>1448.7046</v>
+        <v>80389.86840000001</v>
       </c>
       <c r="G192" t="n">
-        <v>17.03550000000004</v>
+        <v>17.05266666666671</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7172,11 +7140,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7189,19 +7153,19 @@
         <v>16.61</v>
       </c>
       <c r="C193" t="n">
-        <v>16.51</v>
+        <v>16.61</v>
       </c>
       <c r="D193" t="n">
         <v>16.61</v>
       </c>
       <c r="E193" t="n">
-        <v>16.51</v>
+        <v>16.61</v>
       </c>
       <c r="F193" t="n">
-        <v>67020.28479999999</v>
+        <v>1448.7046</v>
       </c>
       <c r="G193" t="n">
-        <v>17.02000000000004</v>
+        <v>17.03550000000004</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7211,11 +7175,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7225,22 +7185,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>16.6</v>
+        <v>16.61</v>
       </c>
       <c r="C194" t="n">
         <v>16.51</v>
       </c>
       <c r="D194" t="n">
-        <v>16.6</v>
+        <v>16.61</v>
       </c>
       <c r="E194" t="n">
         <v>16.51</v>
       </c>
       <c r="F194" t="n">
-        <v>26045.6369</v>
+        <v>67020.28479999999</v>
       </c>
       <c r="G194" t="n">
-        <v>17.00850000000004</v>
+        <v>17.02000000000004</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7250,11 +7210,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7264,22 +7220,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>16.51</v>
+        <v>16.6</v>
       </c>
       <c r="C195" t="n">
         <v>16.51</v>
       </c>
       <c r="D195" t="n">
-        <v>16.51</v>
+        <v>16.6</v>
       </c>
       <c r="E195" t="n">
         <v>16.51</v>
       </c>
       <c r="F195" t="n">
-        <v>1190.7621</v>
+        <v>26045.6369</v>
       </c>
       <c r="G195" t="n">
-        <v>17.00450000000004</v>
+        <v>17.00850000000004</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7289,11 +7245,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7303,22 +7255,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>16.4</v>
+        <v>16.51</v>
       </c>
       <c r="C196" t="n">
-        <v>16.13</v>
+        <v>16.51</v>
       </c>
       <c r="D196" t="n">
-        <v>16.4</v>
+        <v>16.51</v>
       </c>
       <c r="E196" t="n">
-        <v>16.13</v>
+        <v>16.51</v>
       </c>
       <c r="F196" t="n">
-        <v>9846.628199999999</v>
+        <v>1190.7621</v>
       </c>
       <c r="G196" t="n">
-        <v>16.99750000000004</v>
+        <v>17.00450000000004</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7328,11 +7280,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7342,38 +7290,32 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>16.39</v>
+        <v>16.4</v>
       </c>
       <c r="C197" t="n">
-        <v>16.39</v>
+        <v>16.13</v>
       </c>
       <c r="D197" t="n">
-        <v>16.39</v>
+        <v>16.4</v>
       </c>
       <c r="E197" t="n">
-        <v>16.39</v>
+        <v>16.13</v>
       </c>
       <c r="F197" t="n">
-        <v>64407.7305</v>
+        <v>9846.628199999999</v>
       </c>
       <c r="G197" t="n">
-        <v>16.99400000000005</v>
+        <v>16.99750000000004</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>16.13</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7383,38 +7325,32 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>16.38</v>
+        <v>16.39</v>
       </c>
       <c r="C198" t="n">
-        <v>16.14</v>
+        <v>16.39</v>
       </c>
       <c r="D198" t="n">
-        <v>16.51</v>
+        <v>16.39</v>
       </c>
       <c r="E198" t="n">
-        <v>16.14</v>
+        <v>16.39</v>
       </c>
       <c r="F198" t="n">
-        <v>86687.2311</v>
+        <v>64407.7305</v>
       </c>
       <c r="G198" t="n">
-        <v>16.96366666666671</v>
+        <v>16.99400000000005</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>16.39</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7424,38 +7360,32 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="C199" t="n">
         <v>16.14</v>
       </c>
-      <c r="C199" t="n">
-        <v>16.03</v>
-      </c>
       <c r="D199" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E199" t="n">
         <v>16.14</v>
       </c>
-      <c r="E199" t="n">
-        <v>16.03</v>
-      </c>
       <c r="F199" t="n">
-        <v>121633.7465</v>
+        <v>86687.2311</v>
       </c>
       <c r="G199" t="n">
-        <v>16.94916666666671</v>
+        <v>16.96366666666671</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>16.14</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7465,38 +7395,32 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C200" t="n">
         <v>16.03</v>
       </c>
-      <c r="C200" t="n">
-        <v>16.04</v>
-      </c>
       <c r="D200" t="n">
-        <v>16.12</v>
+        <v>16.14</v>
       </c>
       <c r="E200" t="n">
         <v>16.03</v>
       </c>
       <c r="F200" t="n">
-        <v>186149.966</v>
+        <v>121633.7465</v>
       </c>
       <c r="G200" t="n">
-        <v>16.93483333333338</v>
+        <v>16.94916666666671</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>16.03</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7506,38 +7430,32 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="C201" t="n">
-        <v>15.9</v>
+        <v>16.04</v>
       </c>
       <c r="D201" t="n">
-        <v>15.9</v>
+        <v>16.12</v>
       </c>
       <c r="E201" t="n">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="F201" t="n">
-        <v>87100.96859999999</v>
+        <v>186149.966</v>
       </c>
       <c r="G201" t="n">
-        <v>16.91833333333338</v>
+        <v>16.93483333333338</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>16.04</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7547,39 +7465,68 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>87100.96859999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>16.91833333333338</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>15.84</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C203" t="n">
         <v>15.83</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D203" t="n">
         <v>15.84</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E203" t="n">
         <v>15.83</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F203" t="n">
         <v>12615.3946</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G203" t="n">
         <v>16.90050000000005</v>
       </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
+        <v>15.34266666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>15.27733333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>223.0334</v>
       </c>
       <c r="G3" t="n">
+        <v>15.38266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.28216666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.57</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>101.9666</v>
       </c>
       <c r="G4" t="n">
+        <v>15.41333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.28316666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.8</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>17535.3109</v>
       </c>
       <c r="G5" t="n">
+        <v>15.45333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>15.28733333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.57</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>19593.24399886793</v>
       </c>
       <c r="G6" t="n">
+        <v>15.49666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.29100000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.8</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>98387.61870000001</v>
       </c>
       <c r="G7" t="n">
+        <v>15.54333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.29783333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>57228.5856</v>
       </c>
       <c r="G8" t="n">
+        <v>15.59533333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>15.30450000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,25 @@
         <v>41688.8406</v>
       </c>
       <c r="G9" t="n">
+        <v>15.64466666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.31550000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,25 @@
         <v>3400.0311</v>
       </c>
       <c r="G10" t="n">
+        <v>15.68533333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.32000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +839,25 @@
         <v>12606.361</v>
       </c>
       <c r="G11" t="n">
+        <v>15.70533333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>15.32500000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +881,27 @@
         <v>33</v>
       </c>
       <c r="G12" t="n">
+        <v>15.752</v>
+      </c>
+      <c r="H12" t="n">
         <v>15.33500000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.5</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +925,27 @@
         <v>2192.5405</v>
       </c>
       <c r="G13" t="n">
+        <v>15.76733333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>15.34516666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +969,25 @@
         <v>4347.7612</v>
       </c>
       <c r="G14" t="n">
+        <v>15.76733333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>15.35366666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1011,25 @@
         <v>3552.7119</v>
       </c>
       <c r="G15" t="n">
+        <v>15.814</v>
+      </c>
+      <c r="H15" t="n">
         <v>15.36033333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1053,25 @@
         <v>9964.1016</v>
       </c>
       <c r="G16" t="n">
+        <v>15.86066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>15.37516666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1095,25 @@
         <v>3520.7119</v>
       </c>
       <c r="G17" t="n">
+        <v>15.856</v>
+      </c>
+      <c r="H17" t="n">
         <v>15.38016666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1137,25 @@
         <v>1662.1354</v>
       </c>
       <c r="G18" t="n">
+        <v>15.85266666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>15.38250000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1179,25 @@
         <v>5299.5319</v>
       </c>
       <c r="G19" t="n">
+        <v>15.85466666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>15.38250000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1221,25 @@
         <v>6462.9811</v>
       </c>
       <c r="G20" t="n">
+        <v>15.86133333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>15.38916666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1263,25 @@
         <v>9964.1016</v>
       </c>
       <c r="G21" t="n">
+        <v>15.83533333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>15.38766666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1305,25 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
+        <v>15.82866666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>15.39950000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1347,25 @@
         <v>6508.3017</v>
       </c>
       <c r="G23" t="n">
+        <v>15.79066666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>15.39800000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1389,25 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
+        <v>15.778</v>
+      </c>
+      <c r="H24" t="n">
         <v>15.41283333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1431,27 @@
         <v>15692.3755</v>
       </c>
       <c r="G25" t="n">
+        <v>15.75133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>15.41133333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.89</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1475,25 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
+        <v>15.77066666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>15.4295</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1517,25 @@
         <v>37564.5887</v>
       </c>
       <c r="G27" t="n">
+        <v>15.74466666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>15.43633333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1559,25 @@
         <v>100</v>
       </c>
       <c r="G28" t="n">
+        <v>15.74333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>15.4495</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1601,25 @@
         <v>168.0092177358491</v>
       </c>
       <c r="G29" t="n">
+        <v>15.74333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>15.46283333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1643,25 @@
         <v>33315.04048226415</v>
       </c>
       <c r="G30" t="n">
+        <v>15.74333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>15.47783333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1685,25 @@
         <v>13261.2873</v>
       </c>
       <c r="G31" t="n">
+        <v>15.71733333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>15.48466666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1727,25 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
+        <v>15.73666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>15.4945</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1769,25 @@
         <v>5340.803</v>
       </c>
       <c r="G33" t="n">
+        <v>15.72666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>15.4995</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1811,25 @@
         <v>32</v>
       </c>
       <c r="G34" t="n">
+        <v>15.73933333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>15.50933333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1853,25 @@
         <v>10554.7843</v>
       </c>
       <c r="G35" t="n">
+        <v>15.73199999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>15.5175</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1895,25 @@
         <v>9527.189200000001</v>
       </c>
       <c r="G36" t="n">
+        <v>15.75066666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>15.52566666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1937,25 @@
         <v>7347.2628</v>
       </c>
       <c r="G37" t="n">
+        <v>15.75733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>15.53733333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1979,25 @@
         <v>42918.6443</v>
       </c>
       <c r="G38" t="n">
+        <v>15.75799999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>15.541</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2021,25 @@
         <v>3713.2355</v>
       </c>
       <c r="G39" t="n">
+        <v>15.76533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>15.552</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2063,25 @@
         <v>2117.533</v>
       </c>
       <c r="G40" t="n">
+        <v>15.79799999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>15.56816666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2105,25 @@
         <v>2500</v>
       </c>
       <c r="G41" t="n">
+        <v>15.78533333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>15.58416666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2147,25 @@
         <v>7034.7865</v>
       </c>
       <c r="G42" t="n">
+        <v>15.79133333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>15.60083333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2189,25 @@
         <v>7907.3931</v>
       </c>
       <c r="G43" t="n">
+        <v>15.79933333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>15.62416666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2231,25 @@
         <v>1325.6402</v>
       </c>
       <c r="G44" t="n">
+        <v>15.80599999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>15.64683333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2273,25 @@
         <v>1952.5208</v>
       </c>
       <c r="G45" t="n">
+        <v>15.80599999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>15.663</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2315,25 @@
         <v>13088.3509</v>
       </c>
       <c r="G46" t="n">
+        <v>15.80066666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.67133333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2357,25 @@
         <v>100</v>
       </c>
       <c r="G47" t="n">
+        <v>15.808</v>
+      </c>
+      <c r="H47" t="n">
         <v>15.68583333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2399,25 @@
         <v>5464.6416</v>
       </c>
       <c r="G48" t="n">
+        <v>15.828</v>
+      </c>
+      <c r="H48" t="n">
         <v>15.6975</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2441,25 @@
         <v>6768.5702</v>
       </c>
       <c r="G49" t="n">
+        <v>15.84133333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>15.71216666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2483,25 @@
         <v>100224.5882</v>
       </c>
       <c r="G50" t="n">
+        <v>15.856</v>
+      </c>
+      <c r="H50" t="n">
         <v>15.72566666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2525,25 @@
         <v>3275.1294</v>
       </c>
       <c r="G51" t="n">
+        <v>15.90333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>15.7465</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2567,25 @@
         <v>3360.943</v>
       </c>
       <c r="G52" t="n">
+        <v>15.96133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>15.77266666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2609,25 @@
         <v>236472.3691760234</v>
       </c>
       <c r="G53" t="n">
+        <v>16.08533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>15.80733333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2651,25 @@
         <v>6262.0212</v>
       </c>
       <c r="G54" t="n">
+        <v>16.17733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>15.84133333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2693,25 @@
         <v>53.2249</v>
       </c>
       <c r="G55" t="n">
+        <v>16.27066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>15.87633333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2735,25 @@
         <v>18163.6541</v>
       </c>
       <c r="G56" t="n">
+        <v>16.33733333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>15.89966666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2777,25 @@
         <v>205565.5982</v>
       </c>
       <c r="G57" t="n">
+        <v>16.27333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>15.89033333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2819,25 @@
         <v>10778.4314</v>
       </c>
       <c r="G58" t="n">
+        <v>16.33333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>15.91083333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2861,25 @@
         <v>6169.1686</v>
       </c>
       <c r="G59" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H59" t="n">
         <v>15.90416666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2903,25 @@
         <v>25335.6484</v>
       </c>
       <c r="G60" t="n">
+        <v>16.30200000000001</v>
+      </c>
+      <c r="H60" t="n">
         <v>15.91633333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2945,25 @@
         <v>25275.9108</v>
       </c>
       <c r="G61" t="n">
+        <v>16.34666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>15.93133333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2987,25 @@
         <v>14873.8538</v>
       </c>
       <c r="G62" t="n">
+        <v>16.38133333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>15.9455</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3029,25 @@
         <v>10764.0402</v>
       </c>
       <c r="G63" t="n">
+        <v>16.38733333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>15.94866666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3071,25 @@
         <v>24183.4436</v>
       </c>
       <c r="G64" t="n">
+        <v>16.38733333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>15.95566666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3113,25 @@
         <v>55200.8882</v>
       </c>
       <c r="G65" t="n">
+        <v>16.386</v>
+      </c>
+      <c r="H65" t="n">
         <v>15.95883333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3155,25 @@
         <v>49458.3088</v>
       </c>
       <c r="G66" t="n">
+        <v>16.35266666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>15.9605</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3197,25 @@
         <v>70</v>
       </c>
       <c r="G67" t="n">
+        <v>16.228</v>
+      </c>
+      <c r="H67" t="n">
         <v>15.94383333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3239,25 @@
         <v>30</v>
       </c>
       <c r="G68" t="n">
+        <v>16.18266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>15.95416666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3281,25 @@
         <v>3711.7996</v>
       </c>
       <c r="G69" t="n">
+        <v>16.05733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>15.9445</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3323,25 @@
         <v>96696.9957</v>
       </c>
       <c r="G70" t="n">
+        <v>16.004</v>
+      </c>
+      <c r="H70" t="n">
         <v>15.956</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3365,25 @@
         <v>1368.2657</v>
       </c>
       <c r="G71" t="n">
+        <v>15.97733333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>15.96766666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3407,25 @@
         <v>33</v>
       </c>
       <c r="G72" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="H72" t="n">
         <v>15.97233333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3449,25 @@
         <v>234.1683</v>
       </c>
       <c r="G73" t="n">
+        <v>16.02066666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>15.97416666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3491,25 @@
         <v>1368.2657</v>
       </c>
       <c r="G74" t="n">
+        <v>16.008</v>
+      </c>
+      <c r="H74" t="n">
         <v>15.96433333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3533,25 @@
         <v>32</v>
       </c>
       <c r="G75" t="n">
+        <v>16.006</v>
+      </c>
+      <c r="H75" t="n">
         <v>15.96433333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3575,25 @@
         <v>150</v>
       </c>
       <c r="G76" t="n">
+        <v>15.98266666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>15.96183333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3617,25 @@
         <v>4358.8557</v>
       </c>
       <c r="G77" t="n">
+        <v>15.94266666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>15.96716666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3659,25 @@
         <v>4292.6626</v>
       </c>
       <c r="G78" t="n">
+        <v>15.924</v>
+      </c>
+      <c r="H78" t="n">
         <v>15.9665</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3701,25 @@
         <v>32</v>
       </c>
       <c r="G79" t="n">
+        <v>15.91533333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>15.97083333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3743,25 @@
         <v>83675.3278</v>
       </c>
       <c r="G80" t="n">
+        <v>15.86933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>15.96083333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3785,25 @@
         <v>6162.0212</v>
       </c>
       <c r="G81" t="n">
+        <v>15.82266666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>15.95733333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,22 +3827,25 @@
         <v>28401.9137</v>
       </c>
       <c r="G82" t="n">
+        <v>15.896</v>
+      </c>
+      <c r="H82" t="n">
         <v>15.96066666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K82" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,24 +3869,25 @@
         <v>3003.7839</v>
       </c>
       <c r="G83" t="n">
+        <v>15.856</v>
+      </c>
+      <c r="H83" t="n">
         <v>15.9705</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,24 +3911,25 @@
         <v>33569.7998</v>
       </c>
       <c r="G84" t="n">
+        <v>15.90133333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>15.97533333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3953,25 @@
         <v>38300.9475</v>
       </c>
       <c r="G85" t="n">
+        <v>15.89466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>15.99183333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3995,25 @@
         <v>12802.9574</v>
       </c>
       <c r="G86" t="n">
+        <v>15.91466666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>16.00366666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +4037,25 @@
         <v>224862.93108502</v>
       </c>
       <c r="G87" t="n">
+        <v>16.002</v>
+      </c>
+      <c r="H87" t="n">
         <v>16.03666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4079,25 @@
         <v>96.0103</v>
       </c>
       <c r="G88" t="n">
+        <v>16.09866666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>16.06300000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4121,25 @@
         <v>115404.3046</v>
       </c>
       <c r="G89" t="n">
+        <v>16.24466666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>16.08966666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4163,25 @@
         <v>46019.2951</v>
       </c>
       <c r="G90" t="n">
+        <v>16.338</v>
+      </c>
+      <c r="H90" t="n">
         <v>16.11300000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4205,25 @@
         <v>12288.73</v>
       </c>
       <c r="G91" t="n">
+        <v>16.33866666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>16.11716666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4247,25 @@
         <v>872.1671</v>
       </c>
       <c r="G92" t="n">
+        <v>16.44666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>16.14466666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4289,25 @@
         <v>20689.43337431193</v>
       </c>
       <c r="G93" t="n">
+        <v>16.562</v>
+      </c>
+      <c r="H93" t="n">
         <v>16.17533333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4331,25 @@
         <v>987725.6763406681</v>
       </c>
       <c r="G94" t="n">
+        <v>16.706</v>
+      </c>
+      <c r="H94" t="n">
         <v>16.21250000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4373,25 @@
         <v>316068.9607</v>
       </c>
       <c r="G95" t="n">
+        <v>16.89933333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>16.25266666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4415,25 @@
         <v>200818.5977</v>
       </c>
       <c r="G96" t="n">
+        <v>16.95933333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>16.25950000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4457,25 @@
         <v>56894.36646873602</v>
       </c>
       <c r="G97" t="n">
+        <v>16.994</v>
+      </c>
+      <c r="H97" t="n">
         <v>16.26983333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4499,25 @@
         <v>4177.1183</v>
       </c>
       <c r="G98" t="n">
+        <v>17.11133333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>16.30883333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4541,25 @@
         <v>8981.5857</v>
       </c>
       <c r="G99" t="n">
+        <v>17.20133333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>16.33433333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4583,25 @@
         <v>451934.9939913841</v>
       </c>
       <c r="G100" t="n">
+        <v>17.30066666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>16.36750000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4625,25 @@
         <v>689044.7400086159</v>
       </c>
       <c r="G101" t="n">
+        <v>17.40199999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>16.40783333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4667,25 @@
         <v>162050.1957</v>
       </c>
       <c r="G102" t="n">
+        <v>17.40799999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>16.44083333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4709,25 @@
         <v>95018.90113758224</v>
       </c>
       <c r="G103" t="n">
+        <v>17.44999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>16.47566666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4751,25 @@
         <v>106650.2924</v>
       </c>
       <c r="G104" t="n">
+        <v>17.48333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>16.50900000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4793,25 @@
         <v>129659.4525706942</v>
       </c>
       <c r="G105" t="n">
+        <v>17.58133333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>16.55683333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4835,25 @@
         <v>80129.63636617179</v>
       </c>
       <c r="G106" t="n">
+        <v>17.78133333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>16.61233333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4877,25 @@
         <v>287949.7719721103</v>
       </c>
       <c r="G107" t="n">
+        <v>17.84533333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>16.65400000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4919,25 @@
         <v>180245.913</v>
       </c>
       <c r="G108" t="n">
+        <v>17.90933333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>16.69566666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4961,25 @@
         <v>177339.5197</v>
       </c>
       <c r="G109" t="n">
+        <v>17.88533333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>16.72350000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +5003,25 @@
         <v>56908.7163</v>
       </c>
       <c r="G110" t="n">
+        <v>17.90466666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>16.76483333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +5045,25 @@
         <v>46935.7854</v>
       </c>
       <c r="G111" t="n">
+        <v>18.07133333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>16.80150000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +5087,25 @@
         <v>130495.3589086249</v>
       </c>
       <c r="G112" t="n">
+        <v>18.19599999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>16.82850000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +5129,25 @@
         <v>71384.40053888588</v>
       </c>
       <c r="G113" t="n">
+        <v>18.24533333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>16.84883333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,20 +5171,25 @@
         <v>162913.0183524892</v>
       </c>
       <c r="G114" t="n">
+        <v>18.32999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>16.87250000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4419,18 +5211,21 @@
         <v>199979.3478</v>
       </c>
       <c r="G115" t="n">
+        <v>18.38533333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>16.89616666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5249,21 @@
         <v>183625.3204</v>
       </c>
       <c r="G116" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="H116" t="n">
         <v>16.93100000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5287,21 @@
         <v>15268.3587</v>
       </c>
       <c r="G117" t="n">
+        <v>18.46533333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>16.98883333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5325,21 @@
         <v>21912.5632</v>
       </c>
       <c r="G118" t="n">
+        <v>18.492</v>
+      </c>
+      <c r="H118" t="n">
         <v>17.01533333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5363,21 @@
         <v>29684.601</v>
       </c>
       <c r="G119" t="n">
+        <v>18.54533333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>17.07033333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5401,21 @@
         <v>85679.9574</v>
       </c>
       <c r="G120" t="n">
+        <v>18.52133333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>17.11166666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5439,21 @@
         <v>65788.82060000001</v>
       </c>
       <c r="G121" t="n">
+        <v>18.47733333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>17.14500000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5477,21 @@
         <v>24213.4231</v>
       </c>
       <c r="G122" t="n">
+        <v>18.50333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>17.18450000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5515,21 @@
         <v>88904.88959999999</v>
       </c>
       <c r="G123" t="n">
+        <v>18.50333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>17.22466666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5553,21 @@
         <v>56714.6829</v>
       </c>
       <c r="G124" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="H124" t="n">
         <v>17.26416666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5591,21 @@
         <v>55276.7018</v>
       </c>
       <c r="G125" t="n">
+        <v>18.52533333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>17.29966666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5629,21 @@
         <v>28004.8437</v>
       </c>
       <c r="G126" t="n">
+        <v>18.48733333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>17.33516666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5667,21 @@
         <v>49605.7453</v>
       </c>
       <c r="G127" t="n">
+        <v>18.44133333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>17.38183333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5705,21 @@
         <v>53853.8443</v>
       </c>
       <c r="G128" t="n">
+        <v>18.39466666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>17.40183333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5743,21 @@
         <v>145805.606</v>
       </c>
       <c r="G129" t="n">
+        <v>18.31666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>17.43733333333335</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5781,21 @@
         <v>32931.38</v>
       </c>
       <c r="G130" t="n">
+        <v>18.23733333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>17.45450000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5819,21 @@
         <v>44811.3645</v>
       </c>
       <c r="G131" t="n">
+        <v>18.16666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>17.47833333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5857,21 @@
         <v>37861.2922</v>
       </c>
       <c r="G132" t="n">
+        <v>18.134</v>
+      </c>
+      <c r="H132" t="n">
         <v>17.50233333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5895,21 @@
         <v>4935.421</v>
       </c>
       <c r="G133" t="n">
+        <v>18.07733333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>17.52950000000002</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5933,21 @@
         <v>44413.2336</v>
       </c>
       <c r="G134" t="n">
+        <v>17.98666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>17.56500000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5971,21 @@
         <v>138146.2049</v>
       </c>
       <c r="G135" t="n">
+        <v>17.89933333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>17.58500000000002</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +6009,21 @@
         <v>48951.8495</v>
       </c>
       <c r="G136" t="n">
+        <v>17.80266666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>17.60000000000002</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +6047,21 @@
         <v>304683.2125</v>
       </c>
       <c r="G137" t="n">
+        <v>17.65333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>17.61216666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6085,21 @@
         <v>282899.9559</v>
       </c>
       <c r="G138" t="n">
+        <v>17.53333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>17.62700000000002</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,22 +6123,21 @@
         <v>28507.0264</v>
       </c>
       <c r="G139" t="n">
+        <v>17.50666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>17.66200000000002</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K139" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,24 +6161,21 @@
         <v>86583.1557</v>
       </c>
       <c r="G140" t="n">
+        <v>17.42533333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>17.68866666666669</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,24 +6199,21 @@
         <v>26737.5538</v>
       </c>
       <c r="G141" t="n">
+        <v>17.34333333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>17.71533333333336</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,18 +6237,21 @@
         <v>2280</v>
       </c>
       <c r="G142" t="n">
+        <v>17.28266666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>17.72850000000003</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,18 +6275,21 @@
         <v>206369.6900905917</v>
       </c>
       <c r="G143" t="n">
+        <v>17.21599999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>17.74183333333336</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5450,18 +6313,21 @@
         <v>422.8565</v>
       </c>
       <c r="G144" t="n">
+        <v>17.17333333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>17.75533333333336</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,18 +6351,21 @@
         <v>239017.3624</v>
       </c>
       <c r="G145" t="n">
+        <v>17.10533333333332</v>
+      </c>
+      <c r="H145" t="n">
         <v>17.75716666666669</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,18 +6389,21 @@
         <v>58093.5699</v>
       </c>
       <c r="G146" t="n">
+        <v>17.09666666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>17.77383333333336</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,18 +6427,21 @@
         <v>39</v>
       </c>
       <c r="G147" t="n">
+        <v>17.10466666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>17.77800000000003</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,18 +6465,21 @@
         <v>136833.5711</v>
       </c>
       <c r="G148" t="n">
+        <v>17.10933333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>17.78216666666669</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5625,18 +6503,21 @@
         <v>6732.3505</v>
       </c>
       <c r="G149" t="n">
+        <v>17.11266666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>17.78200000000003</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,18 +6541,21 @@
         <v>11096</v>
       </c>
       <c r="G150" t="n">
+        <v>17.14466666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>17.78666666666669</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5695,18 +6579,21 @@
         <v>90</v>
       </c>
       <c r="G151" t="n">
+        <v>17.20933333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>17.8176666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,18 +6617,21 @@
         <v>81036.0456</v>
       </c>
       <c r="G152" t="n">
+        <v>17.24866666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>17.8126666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5765,18 +6655,21 @@
         <v>42742.0045</v>
       </c>
       <c r="G153" t="n">
+        <v>17.28199999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>17.80700000000003</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,18 +6693,21 @@
         <v>96808.6379</v>
       </c>
       <c r="G154" t="n">
+        <v>17.20066666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>17.7856666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5835,18 +6731,21 @@
         <v>2386.6121</v>
       </c>
       <c r="G155" t="n">
+        <v>17.20066666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>17.76400000000003</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,18 +6769,21 @@
         <v>114982.844</v>
       </c>
       <c r="G156" t="n">
+        <v>17.21066666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>17.7781666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,18 +6807,21 @@
         <v>278</v>
       </c>
       <c r="G157" t="n">
+        <v>17.23133333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>17.78783333333336</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,18 +6845,21 @@
         <v>43644.6642</v>
       </c>
       <c r="G158" t="n">
+        <v>17.24733333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>17.77583333333337</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,18 +6883,21 @@
         <v>329.6697</v>
       </c>
       <c r="G159" t="n">
+        <v>17.26333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>17.77083333333337</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6010,18 +6921,21 @@
         <v>30</v>
       </c>
       <c r="G160" t="n">
+        <v>17.31533333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>17.76083333333337</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,18 +6959,21 @@
         <v>60</v>
       </c>
       <c r="G161" t="n">
+        <v>17.30333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>17.7491666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,18 +6997,21 @@
         <v>63697.1914</v>
       </c>
       <c r="G162" t="n">
+        <v>17.27266666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>17.7441666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6115,18 +7035,21 @@
         <v>90</v>
       </c>
       <c r="G163" t="n">
+        <v>17.24133333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>17.73000000000004</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,18 +7073,21 @@
         <v>5466.346</v>
       </c>
       <c r="G164" t="n">
+        <v>17.21466666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>17.71483333333337</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,18 +7111,21 @@
         <v>53815.4977</v>
       </c>
       <c r="G165" t="n">
+        <v>17.17199999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>17.68433333333337</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,18 +7149,21 @@
         <v>46214.56768823529</v>
       </c>
       <c r="G166" t="n">
+        <v>17.11066666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>17.65000000000004</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6255,18 +7187,21 @@
         <v>33952.1999</v>
       </c>
       <c r="G167" t="n">
+        <v>17.094</v>
+      </c>
+      <c r="H167" t="n">
         <v>17.62483333333337</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,18 +7225,21 @@
         <v>112493.8209</v>
       </c>
       <c r="G168" t="n">
+        <v>17.10066666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>17.60483333333337</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6325,18 +7263,21 @@
         <v>6149.5056</v>
       </c>
       <c r="G169" t="n">
+        <v>17.13133333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>17.5971666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6360,18 +7301,21 @@
         <v>43146.2274</v>
       </c>
       <c r="G170" t="n">
+        <v>17.13933333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>17.5726666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,18 +7339,21 @@
         <v>13817.5088</v>
       </c>
       <c r="G171" t="n">
+        <v>17.12933333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>17.5426666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6430,18 +7377,21 @@
         <v>65878.8888</v>
       </c>
       <c r="G172" t="n">
+        <v>17.09599999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>17.51283333333337</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6465,18 +7415,21 @@
         <v>31979.1891</v>
       </c>
       <c r="G173" t="n">
+        <v>17.06599999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>17.48100000000004</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,18 +7453,21 @@
         <v>100</v>
       </c>
       <c r="G174" t="n">
+        <v>17.04399999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>17.44933333333337</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6535,18 +7491,21 @@
         <v>12477.2774</v>
       </c>
       <c r="G175" t="n">
+        <v>17.01733333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>17.41883333333338</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6570,18 +7529,21 @@
         <v>3541.6832</v>
       </c>
       <c r="G176" t="n">
+        <v>16.98933333333332</v>
+      </c>
+      <c r="H176" t="n">
         <v>17.38900000000005</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,18 +7567,21 @@
         <v>39865.892</v>
       </c>
       <c r="G177" t="n">
+        <v>16.94999999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>17.36533333333338</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,18 +7605,21 @@
         <v>6027.7598</v>
       </c>
       <c r="G178" t="n">
+        <v>16.92066666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>17.33716666666671</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6675,18 +7643,21 @@
         <v>30929.3838</v>
       </c>
       <c r="G179" t="n">
+        <v>16.89133333333332</v>
+      </c>
+      <c r="H179" t="n">
         <v>17.30133333333338</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6710,18 +7681,21 @@
         <v>136142.2979</v>
       </c>
       <c r="G180" t="n">
+        <v>16.87399999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>17.27250000000005</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6745,18 +7719,21 @@
         <v>5006.1291</v>
       </c>
       <c r="G181" t="n">
+        <v>16.87399999999998</v>
+      </c>
+      <c r="H181" t="n">
         <v>17.24916666666671</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,18 +7757,21 @@
         <v>5828.5748</v>
       </c>
       <c r="G182" t="n">
+        <v>16.89466666666665</v>
+      </c>
+      <c r="H182" t="n">
         <v>17.22266666666671</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,18 +7795,21 @@
         <v>67627.95819999999</v>
       </c>
       <c r="G183" t="n">
+        <v>16.89533333333332</v>
+      </c>
+      <c r="H183" t="n">
         <v>17.20283333333338</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6850,18 +7833,21 @@
         <v>119831.6469</v>
       </c>
       <c r="G184" t="n">
+        <v>16.89599999999998</v>
+      </c>
+      <c r="H184" t="n">
         <v>17.18366666666672</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6885,18 +7871,21 @@
         <v>21107.3047</v>
       </c>
       <c r="G185" t="n">
+        <v>16.89866666666665</v>
+      </c>
+      <c r="H185" t="n">
         <v>17.16600000000005</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6920,18 +7909,21 @@
         <v>1676.4873</v>
       </c>
       <c r="G186" t="n">
+        <v>16.90533333333332</v>
+      </c>
+      <c r="H186" t="n">
         <v>17.14716666666671</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6955,18 +7947,21 @@
         <v>1547.9535</v>
       </c>
       <c r="G187" t="n">
+        <v>16.91399999999999</v>
+      </c>
+      <c r="H187" t="n">
         <v>17.13100000000005</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6990,18 +7985,21 @@
         <v>9905.405199999999</v>
       </c>
       <c r="G188" t="n">
+        <v>16.92333333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>17.11316666666671</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7025,18 +8023,21 @@
         <v>53225.575</v>
       </c>
       <c r="G189" t="n">
+        <v>16.90933333333332</v>
+      </c>
+      <c r="H189" t="n">
         <v>17.09750000000004</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7060,18 +8061,21 @@
         <v>8798.6203</v>
       </c>
       <c r="G190" t="n">
+        <v>16.89533333333332</v>
+      </c>
+      <c r="H190" t="n">
         <v>17.08333333333337</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7095,18 +8099,21 @@
         <v>11101.9869</v>
       </c>
       <c r="G191" t="n">
+        <v>16.89533333333332</v>
+      </c>
+      <c r="H191" t="n">
         <v>17.07116666666671</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7130,18 +8137,21 @@
         <v>80389.86840000001</v>
       </c>
       <c r="G192" t="n">
+        <v>16.88333333333332</v>
+      </c>
+      <c r="H192" t="n">
         <v>17.05266666666671</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7165,18 +8175,21 @@
         <v>1448.7046</v>
       </c>
       <c r="G193" t="n">
+        <v>16.87066666666665</v>
+      </c>
+      <c r="H193" t="n">
         <v>17.03550000000004</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7200,18 +8213,21 @@
         <v>67020.28479999999</v>
       </c>
       <c r="G194" t="n">
+        <v>16.86133333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>17.02000000000004</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7235,18 +8251,21 @@
         <v>26045.6369</v>
       </c>
       <c r="G195" t="n">
+        <v>16.84333333333332</v>
+      </c>
+      <c r="H195" t="n">
         <v>17.00850000000004</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7270,18 +8289,21 @@
         <v>1190.7621</v>
       </c>
       <c r="G196" t="n">
+        <v>16.82399999999999</v>
+      </c>
+      <c r="H196" t="n">
         <v>17.00450000000004</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7305,18 +8327,21 @@
         <v>9846.628199999999</v>
       </c>
       <c r="G197" t="n">
+        <v>16.75266666666665</v>
+      </c>
+      <c r="H197" t="n">
         <v>16.99750000000004</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7340,18 +8365,21 @@
         <v>64407.7305</v>
       </c>
       <c r="G198" t="n">
+        <v>16.69799999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>16.99400000000005</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7375,18 +8403,21 @@
         <v>86687.2311</v>
       </c>
       <c r="G199" t="n">
+        <v>16.62666666666665</v>
+      </c>
+      <c r="H199" t="n">
         <v>16.96366666666671</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7410,18 +8441,21 @@
         <v>121633.7465</v>
       </c>
       <c r="G200" t="n">
+        <v>16.55799999999999</v>
+      </c>
+      <c r="H200" t="n">
         <v>16.94916666666671</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7445,18 +8479,21 @@
         <v>186149.966</v>
       </c>
       <c r="G201" t="n">
+        <v>16.49399999999999</v>
+      </c>
+      <c r="H201" t="n">
         <v>16.93483333333338</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7480,18 +8517,21 @@
         <v>87100.96859999999</v>
       </c>
       <c r="G202" t="n">
+        <v>16.43199999999998</v>
+      </c>
+      <c r="H202" t="n">
         <v>16.91833333333338</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7515,18 +8555,401 @@
         <v>12615.3946</v>
       </c>
       <c r="G203" t="n">
+        <v>16.36533333333332</v>
+      </c>
+      <c r="H203" t="n">
         <v>16.90050000000005</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="D204" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="F204" t="n">
+        <v>11318.7332</v>
+      </c>
+      <c r="G204" t="n">
+        <v>16.28066666666665</v>
+      </c>
+      <c r="H204" t="n">
+        <v>16.87433333333338</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="D205" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="F205" t="n">
+        <v>68289.069</v>
+      </c>
+      <c r="G205" t="n">
+        <v>16.18666666666665</v>
+      </c>
+      <c r="H205" t="n">
+        <v>16.85366666666671</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D206" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="F206" t="n">
+        <v>172386.3764</v>
+      </c>
+      <c r="G206" t="n">
+        <v>16.07666666666666</v>
+      </c>
+      <c r="H206" t="n">
+        <v>16.81616666666671</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="C207" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="D207" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F207" t="n">
+        <v>156491.1727</v>
+      </c>
+      <c r="G207" t="n">
+        <v>15.99666666666665</v>
+      </c>
+      <c r="H207" t="n">
+        <v>16.77566666666671</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="D208" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="F208" t="n">
+        <v>87027.25719999999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>15.93133333333332</v>
+      </c>
+      <c r="H208" t="n">
+        <v>16.74100000000004</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="C209" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="E209" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F209" t="n">
+        <v>33170.6273</v>
+      </c>
+      <c r="G209" t="n">
+        <v>15.88266666666665</v>
+      </c>
+      <c r="H209" t="n">
+        <v>16.71250000000004</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="C210" t="n">
+        <v>16</v>
+      </c>
+      <c r="D210" t="n">
+        <v>16</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="F210" t="n">
+        <v>53147.0082</v>
+      </c>
+      <c r="G210" t="n">
+        <v>15.84866666666665</v>
+      </c>
+      <c r="H210" t="n">
+        <v>16.68450000000004</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="C211" t="n">
+        <v>16</v>
+      </c>
+      <c r="D211" t="n">
+        <v>16</v>
+      </c>
+      <c r="E211" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="F211" t="n">
+        <v>176822.3606</v>
+      </c>
+      <c r="G211" t="n">
+        <v>15.81466666666666</v>
+      </c>
+      <c r="H211" t="n">
+        <v>16.65583333333337</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4405.0614</v>
+      </c>
+      <c r="G212" t="n">
+        <v>15.84599999999999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>16.64683333333337</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C213" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F213" t="n">
+        <v>9078.1582</v>
+      </c>
+      <c r="G213" t="n">
+        <v>15.85999999999999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>16.63850000000004</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1027834.119033333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-1027757.119033333</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.51</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,24 +521,23 @@
         <v>-974403.1506333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15.55</v>
       </c>
       <c r="J4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +562,23 @@
         <v>-1032619.465933333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>15.68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,24 +603,15 @@
         <v>-995995.6879333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -652,24 +636,15 @@
         <v>-1022885.577933333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,24 +669,15 @@
         <v>-1022570.577933333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,24 +702,15 @@
         <v>-1022669.577933333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,24 +735,15 @@
         <v>-1022629.577933333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,24 +768,15 @@
         <v>-1032047.499333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,24 +801,15 @@
         <v>-1031247.499333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,24 +834,15 @@
         <v>-1031127.499333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,20 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -988,20 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1028,20 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1066,22 +966,21 @@
         <v>-1061112.163333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>15.61</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1106,22 +1005,21 @@
         <v>-1061212.163333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1146,22 +1044,21 @@
         <v>-972592.5463333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1186,22 +1083,21 @@
         <v>-972658.5463333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1226,24 +1122,21 @@
         <v>-972592.5463333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>15.19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1268,24 +1161,21 @@
         <v>-1121160.443833333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>15.6</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1310,24 +1200,21 @@
         <v>-1120570.644075</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>15</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1352,24 +1239,21 @@
         <v>-1129156.565475</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>15.6</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,24 +1278,21 @@
         <v>-1127006.565475</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>14.7</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1436,24 +1317,21 @@
         <v>-1127156.565475</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>15.1</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1478,24 +1356,21 @@
         <v>-1126106.565475</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>15.09</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1520,24 +1395,19 @@
         <v>-1126106.565475</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1562,24 +1432,19 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1604,24 +1469,21 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>15.2</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1646,24 +1508,19 @@
         <v>-1085813.055175</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1688,24 +1545,21 @@
         <v>-1086082.185375</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
         <v>15.3</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1730,22 +1584,21 @@
         <v>-1082981.310075</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1770,22 +1623,21 @@
         <v>-1082981.310075</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1812,20 +1664,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1852,20 +1701,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1892,20 +1738,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1932,20 +1775,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1972,20 +1812,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2010,24 +1847,21 @@
         <v>-1098895.384675</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>14.64</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2052,24 +1886,21 @@
         <v>-1098895.384675</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>14.6</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2094,24 +1925,21 @@
         <v>-1098226.146675</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>14.6</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2136,24 +1964,21 @@
         <v>-1096869.294675</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>14.64</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2178,24 +2003,21 @@
         <v>-1096869.294675</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>15.03</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2220,24 +2042,19 @@
         <v>-1096869.294675</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2262,24 +2079,19 @@
         <v>-1095509.276475</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2304,24 +2116,19 @@
         <v>-1121755.428275</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2346,24 +2153,19 @@
         <v>-1111576.942675</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2388,24 +2190,19 @@
         <v>-1110220.090675</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2430,24 +2227,19 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2474,20 +2266,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2514,20 +2303,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2554,20 +2340,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2594,20 +2377,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2634,20 +2414,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2674,20 +2451,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2714,20 +2488,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2754,20 +2525,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2794,20 +2562,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2834,20 +2599,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2874,20 +2636,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2914,20 +2673,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2954,20 +2710,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2994,20 +2747,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3034,20 +2784,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3074,20 +2821,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3114,20 +2858,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3154,20 +2895,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3194,20 +2932,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3234,20 +2969,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3274,20 +3006,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3314,20 +3043,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3354,20 +3080,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3394,20 +3117,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3434,20 +3154,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3474,20 +3191,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3514,20 +3228,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3554,20 +3265,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3594,20 +3302,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3634,20 +3339,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3674,20 +3376,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3714,20 +3413,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3754,20 +3450,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3794,20 +3487,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3834,20 +3524,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3874,20 +3561,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3914,20 +3598,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3954,20 +3635,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3994,20 +3672,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4034,20 +3709,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4074,20 +3746,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4114,20 +3783,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4154,20 +3820,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4194,20 +3857,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4234,20 +3894,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4274,20 +3931,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4314,20 +3968,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4354,20 +4005,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4394,20 +4042,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4434,20 +4079,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4474,20 +4116,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4514,20 +4153,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4554,20 +4190,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4594,20 +4227,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4634,20 +4264,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4674,20 +4301,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4714,20 +4338,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4754,20 +4375,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4794,20 +4412,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4834,20 +4449,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4874,20 +4486,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4912,22 +4521,17 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4952,22 +4556,15 @@
         <v>-317527.7476989769</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4992,22 +4589,15 @@
         <v>-335691.4017989769</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5032,22 +4622,15 @@
         <v>-541256.9999989769</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5072,22 +4655,15 @@
         <v>-530478.5685989769</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5114,20 +4690,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5154,20 +4723,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5194,20 +4756,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5234,20 +4789,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5272,22 +4820,15 @@
         <v>-481926.3643989769</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5312,22 +4853,15 @@
         <v>-481926.3643989769</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5352,22 +4886,15 @@
         <v>-481926.3643989769</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5394,20 +4921,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5434,20 +4954,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5474,20 +4987,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5514,20 +5020,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5554,20 +5053,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5594,20 +5086,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5634,20 +5119,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5674,20 +5152,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5714,20 +5185,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5754,20 +5218,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5794,20 +5251,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5834,20 +5284,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5874,20 +5317,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5914,20 +5350,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5954,20 +5383,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5994,20 +5416,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6034,20 +5449,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6074,20 +5482,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6114,20 +5515,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6154,20 +5548,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6194,20 +5581,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6234,20 +5614,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6274,20 +5647,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6314,20 +5680,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6354,20 +5713,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6394,20 +5746,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6432,22 +5777,15 @@
         <v>-51931.37691395694</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6474,20 +5812,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6514,20 +5845,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6554,20 +5878,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6594,20 +5911,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6634,20 +5944,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6674,20 +5977,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6712,22 +6008,15 @@
         <v>1103134.561495447</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6752,22 +6041,15 @@
         <v>1555069.555486831</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6792,22 +6074,15 @@
         <v>2244114.295495447</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6832,22 +6107,15 @@
         <v>2082064.099795447</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6872,22 +6140,15 @@
         <v>2177083.000933029</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6912,22 +6173,15 @@
         <v>2070432.708533029</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6952,22 +6206,15 @@
         <v>2200092.161103723</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6992,22 +6239,15 @@
         <v>2119962.524737551</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7032,22 +6272,15 @@
         <v>1832012.752765441</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7072,22 +6305,15 @@
         <v>1832012.752765441</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7114,20 +6340,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7152,22 +6371,15 @@
         <v>1711581.949365441</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7194,20 +6406,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7234,20 +6439,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7274,20 +6472,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7314,20 +6505,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7354,20 +6538,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7394,20 +6571,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7434,20 +6604,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7474,20 +6637,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7514,18 +6670,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L177" t="n">
+        <v>1</v>
       </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7552,16 +6703,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7588,16 +6736,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7624,16 +6769,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7660,16 +6802,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7696,16 +6835,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7732,16 +6868,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7768,16 +6901,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7802,18 +6932,15 @@
         <v>1565250.096848192</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7840,16 +6967,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7876,16 +7000,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7912,16 +7033,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7948,16 +7066,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7984,16 +7099,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8020,16 +7132,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8056,16 +7165,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8090,18 +7196,15 @@
         <v>1257813.025448192</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8128,16 +7231,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8164,16 +7264,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8200,16 +7297,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8236,16 +7330,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8272,16 +7363,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8308,16 +7396,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8344,16 +7429,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8380,16 +7462,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8416,16 +7495,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8452,16 +7528,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8488,16 +7561,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8524,16 +7594,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8560,16 +7627,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8596,16 +7660,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8632,16 +7693,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8668,16 +7726,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8704,16 +7759,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8740,16 +7792,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8776,16 +7825,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8810,18 +7856,15 @@
         <v>802049.5466387839</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8846,18 +7889,15 @@
         <v>917032.3906387839</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8882,18 +7922,15 @@
         <v>917310.3906387839</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8918,18 +7955,15 @@
         <v>873665.7264387839</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8954,18 +7988,15 @@
         <v>873995.3961387839</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8990,18 +8021,15 @@
         <v>874025.3961387839</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9026,18 +8054,15 @@
         <v>873965.3961387839</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9062,18 +8087,15 @@
         <v>810268.2047387839</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9100,16 +8122,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9134,18 +8153,15 @@
         <v>804711.8587387839</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9170,18 +8186,15 @@
         <v>750896.3610387839</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9206,18 +8219,15 @@
         <v>704681.7933505486</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9242,18 +8252,15 @@
         <v>738633.9932505486</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9278,18 +8285,15 @@
         <v>851127.8141505487</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9314,18 +8318,15 @@
         <v>851127.8141505487</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9350,18 +8351,15 @@
         <v>807981.5867505487</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9386,18 +8384,15 @@
         <v>794164.0779505487</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9422,18 +8417,15 @@
         <v>728285.1891505488</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9460,16 +8452,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9494,18 +8483,15 @@
         <v>696406.0000505488</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9530,18 +8516,15 @@
         <v>708883.2774505488</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9566,18 +8549,15 @@
         <v>705341.5942505489</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9602,18 +8582,15 @@
         <v>665475.7022505489</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9638,18 +8615,15 @@
         <v>671503.4620505489</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9676,16 +8650,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9710,18 +8681,15 @@
         <v>776716.3761505489</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9746,18 +8714,15 @@
         <v>781722.5052505489</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9782,18 +8747,15 @@
         <v>787551.0800505489</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9820,16 +8782,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9856,16 +8815,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9892,16 +8848,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9928,16 +8881,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9964,16 +8914,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10000,16 +8947,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10036,16 +8980,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10070,18 +9011,15 @@
         <v>786420.3380505489</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10106,18 +9044,15 @@
         <v>797522.3249505489</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10144,16 +9079,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10180,16 +9112,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10216,16 +9145,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10252,16 +9178,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10288,16 +9211,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10324,16 +9244,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10360,16 +9277,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10396,16 +9310,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10432,16 +9343,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10468,16 +9376,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10504,16 +9409,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10540,16 +9442,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10576,16 +9475,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10612,16 +9508,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10648,16 +9541,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10684,16 +9574,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10720,16 +9607,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10756,16 +9640,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10792,16 +9673,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10828,16 +9706,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10862,18 +9737,15 @@
         <v>666481.5520505488</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10898,20 +9770,17 @@
         <v>666481.5520505488</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1027834.119033333</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1027757.119033333</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>15.51</v>
@@ -521,11 +521,9 @@
         <v>-974403.1506333334</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>15.51</v>
       </c>
@@ -562,11 +560,9 @@
         <v>-1032619.465933333</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>15.51</v>
       </c>
@@ -735,10 +731,14 @@
         <v>-1022629.577933333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -771,8 +771,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,11 +807,19 @@
         <v>-1031247.499333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,11 +848,19 @@
         <v>-1031127.499333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,11 +889,19 @@
         <v>-1031193.499333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,11 +930,19 @@
         <v>-1031038.499333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -933,11 +971,19 @@
         <v>-1030638.499333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -966,15 +1012,17 @@
         <v>-1061112.163333333</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>15.61</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1005,12 +1053,12 @@
         <v>-1061212.163333333</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1044,12 +1092,14 @@
         <v>-972592.5463333334</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>15.5</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,12 +1133,14 @@
         <v>-972658.5463333334</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>15.6</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1122,12 +1174,14 @@
         <v>-972592.5463333334</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>15.19</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1161,12 +1215,14 @@
         <v>-1121160.443833333</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>15.6</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,12 +1256,14 @@
         <v>-1120570.644075</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>15</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1239,12 +1297,14 @@
         <v>-1129156.565475</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>15.6</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,12 +1338,12 @@
         <v>-1127006.565475</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1317,12 +1377,12 @@
         <v>-1127156.565475</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1356,12 +1416,12 @@
         <v>-1126106.565475</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1398,7 +1458,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1432,10 +1494,14 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1469,12 +1535,14 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>15.2</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,10 +1576,14 @@
         <v>-1085813.055175</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1545,12 +1617,14 @@
         <v>-1086082.185375</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>15.3</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1584,12 +1658,12 @@
         <v>-1082981.310075</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1623,12 +1697,12 @@
         <v>-1082981.310075</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1665,7 +1739,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,7 +1778,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1739,7 +1817,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1776,7 +1856,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1813,7 +1895,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1847,12 +1931,14 @@
         <v>-1098895.384675</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>14.64</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1886,12 +1972,14 @@
         <v>-1098895.384675</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>14.6</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1925,12 +2013,14 @@
         <v>-1098226.146675</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>14.6</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1964,12 +2054,14 @@
         <v>-1096869.294675</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>14.64</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2003,12 +2095,14 @@
         <v>-1096869.294675</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>15.03</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,10 +2136,14 @@
         <v>-1096869.294675</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,10 +2177,14 @@
         <v>-1095509.276475</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,10 +2218,14 @@
         <v>-1121755.428275</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,10 +2259,14 @@
         <v>-1111576.942675</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2190,10 +2300,14 @@
         <v>-1110220.090675</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,10 +2341,14 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,10 +2382,14 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2301,10 +2423,14 @@
         <v>-1061167.752475</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2338,10 +2464,14 @@
         <v>-1088036.762275</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,7 +2508,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2415,7 +2547,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2449,10 +2583,14 @@
         <v>-978906.0412947832</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,10 +2624,14 @@
         <v>-741285.0896738681</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,7 +2668,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,7 +2707,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,7 +2746,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2637,7 +2785,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,7 +2824,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2711,7 +2863,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,7 +2902,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,7 +2941,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,7 +2980,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,7 +3019,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,7 +3058,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,7 +3097,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,7 +3136,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,7 +3175,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,7 +3214,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,7 +3253,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,7 +3292,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,7 +3331,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,7 +3370,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,7 +3409,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,7 +3448,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3303,7 +3487,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,7 +3526,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,7 +3565,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,7 +3604,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,7 +3643,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,7 +3682,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,7 +3721,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,7 +3760,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,7 +3799,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,7 +3838,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3673,7 +3877,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,7 +3916,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,7 +3955,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,7 +3994,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,7 +4033,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,7 +4072,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,7 +4111,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,7 +4150,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,7 +4189,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,7 +4228,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,7 +4267,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,7 +4306,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,7 +4345,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,7 +4384,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,7 +4423,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,7 +4462,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,7 +4501,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,7 +4540,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4339,7 +4579,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,7 +4618,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4413,7 +4657,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,7 +4696,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,7 +4735,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,16 +4771,20 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
       <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -4556,11 +4810,17 @@
         <v>-317527.7476989769</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4589,11 +4849,17 @@
         <v>-335691.4017989769</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4622,11 +4888,17 @@
         <v>-541256.9999989769</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4655,11 +4927,17 @@
         <v>-530478.5685989769</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4691,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4724,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4757,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4790,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4820,11 +5122,17 @@
         <v>-481926.3643989769</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4853,11 +5161,17 @@
         <v>-481926.3643989769</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4886,11 +5200,17 @@
         <v>-481926.3643989769</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4922,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4955,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4988,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5021,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5054,8 +5398,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5087,8 +5437,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5120,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5153,8 +5515,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5186,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5219,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5285,8 +5671,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5318,8 +5710,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5351,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5384,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5417,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5450,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5483,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5516,8 +5944,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5549,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5582,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5615,8 +6061,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5648,8 +6100,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5681,8 +6139,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5714,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5747,8 +6217,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5777,11 +6253,17 @@
         <v>-51931.37691395694</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5813,8 +6295,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5846,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5879,8 +6373,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5912,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5945,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5978,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +6526,17 @@
         <v>1103134.561495447</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6041,11 +6565,17 @@
         <v>1555069.555486831</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +6604,17 @@
         <v>2244114.295495447</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6107,11 +6643,17 @@
         <v>2082064.099795447</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6140,11 +6682,17 @@
         <v>2177083.000933029</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6173,11 +6721,17 @@
         <v>2070432.708533029</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6206,11 +6760,17 @@
         <v>2200092.161103723</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6239,11 +6799,17 @@
         <v>2119962.524737551</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6272,11 +6838,17 @@
         <v>1832012.752765441</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6305,11 +6877,17 @@
         <v>1832012.752765441</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6341,8 +6919,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6371,11 +6955,17 @@
         <v>1711581.949365441</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6997,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6440,8 +7036,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6473,8 +7075,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6506,8 +7114,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6539,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6572,8 +7192,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6605,8 +7231,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6638,8 +7270,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6671,8 +7309,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6704,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6737,8 +7387,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6770,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6803,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6836,8 +7504,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6869,8 +7543,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6902,8 +7582,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6932,15 +7618,23 @@
         <v>1565250.096848192</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>1.166052631578948</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1.031578947368421</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6965,7 +7659,7 @@
         <v>1619103.941148192</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6998,7 +7692,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7031,7 +7725,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7130,7 +7824,7 @@
         <v>1440372.463948192</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7163,7 +7857,7 @@
         <v>1395959.230348192</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7196,7 +7890,7 @@
         <v>1257813.025448192</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7229,7 +7923,7 @@
         <v>1208861.175948192</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7262,7 +7956,7 @@
         <v>904177.9634481919</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7295,7 +7989,7 @@
         <v>1187077.919348192</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7328,7 +8022,7 @@
         <v>1215584.945748192</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7361,7 +8055,7 @@
         <v>1129001.790048192</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7394,7 +8088,7 @@
         <v>1129001.790048192</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7427,7 +8121,7 @@
         <v>1126721.790048192</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7493,7 +8187,7 @@
         <v>1333514.336638784</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7526,7 +8220,7 @@
         <v>1094496.974238784</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7559,7 +8253,7 @@
         <v>1152590.544138784</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7592,7 +8286,7 @@
         <v>1152629.544138784</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7691,7 +8385,7 @@
         <v>1020159.622538784</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7724,7 +8418,7 @@
         <v>1020249.622538784</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7757,7 +8451,7 @@
         <v>939213.5769387839</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7856,7 +8550,7 @@
         <v>802049.5466387839</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7889,7 +8583,7 @@
         <v>917032.3906387839</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7922,7 +8616,7 @@
         <v>917310.3906387839</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7955,7 +8649,7 @@
         <v>873665.7264387839</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7988,7 +8682,7 @@
         <v>873995.3961387839</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8021,7 +8715,7 @@
         <v>874025.3961387839</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8054,7 +8748,7 @@
         <v>873965.3961387839</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8087,7 +8781,7 @@
         <v>810268.2047387839</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8153,7 +8847,7 @@
         <v>804711.8587387839</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8186,7 +8880,7 @@
         <v>750896.3610387839</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8219,7 +8913,7 @@
         <v>704681.7933505486</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8252,7 +8946,7 @@
         <v>738633.9932505486</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8285,7 +8979,7 @@
         <v>851127.8141505487</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8318,7 +9012,7 @@
         <v>851127.8141505487</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8351,7 +9045,7 @@
         <v>807981.5867505487</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8384,7 +9078,7 @@
         <v>794164.0779505487</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8417,7 +9111,7 @@
         <v>728285.1891505488</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8483,7 +9177,7 @@
         <v>696406.0000505488</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8516,7 +9210,7 @@
         <v>708883.2774505488</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8549,7 +9243,7 @@
         <v>705341.5942505489</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8582,7 +9276,7 @@
         <v>665475.7022505489</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8615,7 +9309,7 @@
         <v>671503.4620505489</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8681,7 +9375,7 @@
         <v>776716.3761505489</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8714,7 +9408,7 @@
         <v>781722.5052505489</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8747,7 +9441,7 @@
         <v>787551.0800505489</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9011,7 +9705,7 @@
         <v>786420.3380505489</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9044,7 +9738,7 @@
         <v>797522.3249505489</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9737,7 +10431,7 @@
         <v>666481.5520505488</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9770,7 +10464,7 @@
         <v>666481.5520505488</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9781,6 +10475,6 @@
       <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1027834.119033333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1027757.119033333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -731,14 +715,10 @@
         <v>-1022629.577933333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -771,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -807,19 +781,11 @@
         <v>-1031247.499333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,19 +814,11 @@
         <v>-1031127.499333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -889,19 +847,11 @@
         <v>-1031193.499333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,19 +880,11 @@
         <v>-1031038.499333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,19 +913,11 @@
         <v>-1030638.499333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1012,19 +946,11 @@
         <v>-1061112.163333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="J17" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1056,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,19 +1012,11 @@
         <v>-972592.5463333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1133,19 +1045,11 @@
         <v>-972658.5463333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1174,19 +1078,11 @@
         <v>-972592.5463333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1215,19 +1111,11 @@
         <v>-1121160.443833333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1256,19 +1144,11 @@
         <v>-1120570.644075</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>15</v>
-      </c>
-      <c r="J23" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1297,19 +1177,11 @@
         <v>-1129156.565475</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1341,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1419,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1458,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1494,19 +1342,11 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,19 +1375,11 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,19 +1408,11 @@
         <v>-1085813.055175</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1617,19 +1441,11 @@
         <v>-1086082.185375</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1661,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1778,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1817,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1856,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1895,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1937,13 +1711,9 @@
         <v>14.64</v>
       </c>
       <c r="J40" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.64</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1978,11 +1748,11 @@
         <v>14.6</v>
       </c>
       <c r="J41" t="n">
-        <v>15.2</v>
+        <v>14.64</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2019,11 +1789,11 @@
         <v>14.6</v>
       </c>
       <c r="J42" t="n">
-        <v>15.2</v>
+        <v>14.64</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2060,13 +1830,9 @@
         <v>14.64</v>
       </c>
       <c r="J43" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.64</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +1867,11 @@
         <v>15.03</v>
       </c>
       <c r="J44" t="n">
-        <v>15.2</v>
+        <v>14.64</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2142,11 +1908,11 @@
         <v>15.03</v>
       </c>
       <c r="J45" t="n">
-        <v>15.2</v>
+        <v>14.64</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2183,13 +1949,9 @@
         <v>15.03</v>
       </c>
       <c r="J46" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.03</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2224,11 +1986,11 @@
         <v>15.2</v>
       </c>
       <c r="J47" t="n">
-        <v>15.2</v>
+        <v>15.03</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2265,11 +2027,11 @@
         <v>15.11</v>
       </c>
       <c r="J48" t="n">
-        <v>15.2</v>
+        <v>15.03</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2300,19 +2062,11 @@
         <v>-1110220.090675</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2341,19 +2095,11 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2382,19 +2128,11 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2423,19 +2161,11 @@
         <v>-1061167.752475</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2464,19 +2194,11 @@
         <v>-1088036.762275</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="J53" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2230,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2544,17 +2260,15 @@
         <v>-1094897.050875</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J55" t="n">
         <v>15.2</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2307,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2624,17 +2338,15 @@
         <v>-741285.0896738681</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>15.2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2668,14 +2380,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2707,14 +2413,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2746,14 +2446,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2785,14 +2479,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2824,14 +2512,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2863,14 +2545,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2902,14 +2578,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2941,14 +2611,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2980,14 +2644,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2677,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3058,14 +2710,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3097,14 +2743,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3136,14 +2776,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3175,14 +2809,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3214,14 +2842,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3253,14 +2875,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3292,14 +2908,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3331,14 +2941,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3370,14 +2974,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3409,14 +3007,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3448,14 +3040,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3487,14 +3073,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3526,14 +3106,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3565,14 +3139,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3604,14 +3172,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3643,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3682,14 +3238,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3721,14 +3271,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3760,14 +3304,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3799,14 +3337,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3838,14 +3370,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3877,14 +3403,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3916,14 +3436,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3955,14 +3469,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3994,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4033,14 +3535,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4072,14 +3568,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4111,14 +3601,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4150,14 +3634,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4189,14 +3667,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4228,14 +3700,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4267,14 +3733,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4306,14 +3766,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4345,14 +3799,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4384,14 +3832,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4423,14 +3865,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4462,14 +3898,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4501,14 +3931,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4540,14 +3964,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4579,14 +3997,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4618,14 +4030,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4657,14 +4063,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4696,14 +4096,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4732,17 +4126,11 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4771,17 +4159,11 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4810,17 +4192,11 @@
         <v>-317527.7476989769</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4849,17 +4225,11 @@
         <v>-335691.4017989769</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4888,17 +4258,11 @@
         <v>-541256.9999989769</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4930,14 +4294,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4966,17 +4324,11 @@
         <v>-536647.7371989769</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5008,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5047,14 +4393,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5086,14 +4426,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5125,14 +4459,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5164,14 +4492,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5203,14 +4525,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5242,14 +4558,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5281,14 +4591,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5320,14 +4624,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5359,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5398,14 +4690,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5437,14 +4723,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5476,14 +4756,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5515,14 +4789,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5554,14 +4822,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5593,14 +4855,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5632,14 +4888,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5671,14 +4921,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5707,17 +4951,11 @@
         <v>-351296.077498977</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5749,14 +4987,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5785,17 +5017,11 @@
         <v>-434939.4052989769</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5827,14 +5053,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5866,14 +5086,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5905,14 +5119,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5944,14 +5152,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5980,17 +5182,11 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6019,17 +5215,11 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6058,17 +5248,11 @@
         <v>-109803.8132139569</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6097,17 +5281,11 @@
         <v>-109899.8235139569</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6136,17 +5314,11 @@
         <v>5504.481086043059</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6175,17 +5347,11 @@
         <v>-40514.81401395694</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6217,14 +5383,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6256,14 +5416,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6292,17 +5446,11 @@
         <v>-51931.37691395694</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6331,17 +5479,11 @@
         <v>935794.2994267112</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6370,17 +5512,11 @@
         <v>1251863.260126711</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6409,17 +5545,11 @@
         <v>1051044.662426711</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6448,17 +5578,11 @@
         <v>1107939.028895447</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6487,17 +5611,11 @@
         <v>1112116.147195447</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6526,17 +5644,11 @@
         <v>1103134.561495447</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6565,17 +5677,11 @@
         <v>1555069.555486831</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6607,14 +5713,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6646,14 +5746,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6685,14 +5779,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6724,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6763,14 +5845,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6802,14 +5878,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6841,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6880,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6919,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6958,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6997,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7036,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7075,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7114,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7153,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7192,14 +6208,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7231,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7270,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7309,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7348,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7387,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7426,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7465,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7504,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7543,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7582,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7618,23 +6568,15 @@
         <v>1565250.096848192</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>1.166052631578948</v>
-      </c>
-      <c r="M185" t="n">
-        <v>1.031578947368421</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7659,7 +6601,7 @@
         <v>1619103.941148192</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7692,7 +6634,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7725,7 +6667,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7824,7 +6766,7 @@
         <v>1440372.463948192</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7857,7 +6799,7 @@
         <v>1395959.230348192</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7890,7 +6832,7 @@
         <v>1257813.025448192</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7923,7 +6865,7 @@
         <v>1208861.175948192</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7956,7 +6898,7 @@
         <v>904177.9634481919</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7989,7 +6931,7 @@
         <v>1187077.919348192</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8022,7 +6964,7 @@
         <v>1215584.945748192</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8055,7 +6997,7 @@
         <v>1129001.790048192</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8088,7 +7030,7 @@
         <v>1129001.790048192</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8121,7 +7063,7 @@
         <v>1126721.790048192</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8187,7 +7129,7 @@
         <v>1333514.336638784</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8220,7 +7162,7 @@
         <v>1094496.974238784</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8253,7 +7195,7 @@
         <v>1152590.544138784</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8286,7 +7228,7 @@
         <v>1152629.544138784</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8385,7 +7327,7 @@
         <v>1020159.622538784</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8418,7 +7360,7 @@
         <v>1020249.622538784</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8451,7 +7393,7 @@
         <v>939213.5769387839</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8583,7 +7525,7 @@
         <v>917032.3906387839</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8616,7 +7558,7 @@
         <v>917310.3906387839</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -10475,6 +9417,6 @@
       <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -2062,10 +2062,14 @@
         <v>-1110220.090675</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2095,11 +2099,19 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2131,8 +2143,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2260,14 +2278,10 @@
         <v>-1094897.050875</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2297,19 +2311,11 @@
         <v>-978906.0412947832</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2341,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4159,7 +4159,7 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4192,7 +4192,7 @@
         <v>-317527.7476989769</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
         <v>-335691.4017989769</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4258,7 +4258,7 @@
         <v>-541256.9999989769</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4324,7 +4324,7 @@
         <v>-536647.7371989769</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4951,7 +4951,7 @@
         <v>-351296.077498977</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5017,7 +5017,7 @@
         <v>-434939.4052989769</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5182,7 +5182,7 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5248,7 +5248,7 @@
         <v>-109803.8132139569</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5281,7 +5281,7 @@
         <v>-109899.8235139569</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5314,7 +5314,7 @@
         <v>5504.481086043059</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5347,7 +5347,7 @@
         <v>-40514.81401395694</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>-51931.37691395694</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5479,7 +5479,7 @@
         <v>935794.2994267112</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5512,7 +5512,7 @@
         <v>1251863.260126711</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5545,7 +5545,7 @@
         <v>1051044.662426711</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5578,7 +5578,7 @@
         <v>1107939.028895447</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
         <v>1112116.147195447</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5644,7 +5644,7 @@
         <v>1103134.561495447</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5677,7 +5677,7 @@
         <v>1555069.555486831</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6205,7 +6205,7 @@
         <v>1878673.822148191</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6238,7 +6238,7 @@
         <v>1863405.463448191</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6304,7 +6304,7 @@
         <v>1915002.627648191</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6337,7 +6337,7 @@
         <v>1829322.670248191</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6370,7 +6370,7 @@
         <v>1763533.849648191</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6403,7 +6403,7 @@
         <v>1787747.272748191</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6436,7 +6436,7 @@
         <v>1698842.383148191</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6469,7 +6469,7 @@
         <v>1642127.700248192</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6502,7 +6502,7 @@
         <v>1586850.998448192</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6535,7 +6535,7 @@
         <v>1614855.842148192</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6568,7 +6568,7 @@
         <v>1565250.096848192</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6601,7 +6601,7 @@
         <v>1619103.941148192</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6634,7 +6634,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6667,7 +6667,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6700,7 +6700,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6766,7 +6766,7 @@
         <v>1440372.463948192</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6799,7 +6799,7 @@
         <v>1395959.230348192</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6832,7 +6832,7 @@
         <v>1257813.025448192</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest FAB.xlsx
+++ b/BackTest/2020-01-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:L271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>40477.3937</v>
       </c>
       <c r="G2" t="n">
-        <v>-1027834.119033333</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>77</v>
       </c>
       <c r="G3" t="n">
-        <v>-1027757.119033333</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>53353.9684</v>
       </c>
       <c r="G4" t="n">
-        <v>-974403.1506333334</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>15.55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>58216.3153</v>
       </c>
       <c r="G5" t="n">
-        <v>-1032619.465933333</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>15.68</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>36623.778</v>
       </c>
       <c r="G6" t="n">
-        <v>-995995.6879333333</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>15.59</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>26889.89</v>
       </c>
       <c r="G7" t="n">
-        <v>-1022885.577933333</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>15.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,21 @@
         <v>315</v>
       </c>
       <c r="G8" t="n">
-        <v>-1022570.577933333</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +695,21 @@
         <v>99</v>
       </c>
       <c r="G9" t="n">
-        <v>-1022669.577933333</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +731,23 @@
         <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>-1022629.577933333</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +769,23 @@
         <v>9417.921399999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-1032047.499333333</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +807,23 @@
         <v>800</v>
       </c>
       <c r="G12" t="n">
-        <v>-1031247.499333333</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>15.29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +845,23 @@
         <v>120</v>
       </c>
       <c r="G13" t="n">
-        <v>-1031127.499333333</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>15.39</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +883,23 @@
         <v>66</v>
       </c>
       <c r="G14" t="n">
-        <v>-1031193.499333333</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>15.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +921,21 @@
         <v>155</v>
       </c>
       <c r="G15" t="n">
-        <v>-1031038.499333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +957,23 @@
         <v>400</v>
       </c>
       <c r="G16" t="n">
-        <v>-1030638.499333333</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +995,21 @@
         <v>30473.664</v>
       </c>
       <c r="G17" t="n">
-        <v>-1061112.163333333</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1031,21 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>-1061212.163333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1067,21 @@
         <v>88619.617</v>
       </c>
       <c r="G19" t="n">
-        <v>-972592.5463333334</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1103,21 @@
         <v>66</v>
       </c>
       <c r="G20" t="n">
-        <v>-972658.5463333334</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1139,21 @@
         <v>66</v>
       </c>
       <c r="G21" t="n">
-        <v>-972592.5463333334</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1175,21 @@
         <v>148567.8975</v>
       </c>
       <c r="G22" t="n">
-        <v>-1121160.443833333</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1211,21 @@
         <v>589.7997583333333</v>
       </c>
       <c r="G23" t="n">
-        <v>-1120570.644075</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1247,21 @@
         <v>8585.921399999999</v>
       </c>
       <c r="G24" t="n">
-        <v>-1129156.565475</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1283,21 @@
         <v>2150</v>
       </c>
       <c r="G25" t="n">
-        <v>-1127006.565475</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1319,21 @@
         <v>150</v>
       </c>
       <c r="G26" t="n">
-        <v>-1127156.565475</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1355,21 @@
         <v>1050</v>
       </c>
       <c r="G27" t="n">
-        <v>-1126106.565475</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1391,21 @@
         <v>4400</v>
       </c>
       <c r="G28" t="n">
-        <v>-1126106.565475</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1427,21 @@
         <v>31426.7842</v>
       </c>
       <c r="G29" t="n">
-        <v>-1094679.781275</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1463,21 @@
         <v>87.197</v>
       </c>
       <c r="G30" t="n">
-        <v>-1094679.781275</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1499,21 @@
         <v>8866.7261</v>
       </c>
       <c r="G31" t="n">
-        <v>-1085813.055175</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1535,21 @@
         <v>269.1302</v>
       </c>
       <c r="G32" t="n">
-        <v>-1086082.185375</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1571,21 @@
         <v>3100.8753</v>
       </c>
       <c r="G33" t="n">
-        <v>-1082981.310075</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1607,21 @@
         <v>4112.0585</v>
       </c>
       <c r="G34" t="n">
-        <v>-1082981.310075</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1643,21 @@
         <v>1151.555</v>
       </c>
       <c r="G35" t="n">
-        <v>-1082981.310075</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1679,21 @@
         <v>602.8094</v>
       </c>
       <c r="G36" t="n">
-        <v>-1082981.310075</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1715,21 @@
         <v>2870.0341</v>
       </c>
       <c r="G37" t="n">
-        <v>-1080111.275975</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1751,21 @@
         <v>127.4987</v>
       </c>
       <c r="G38" t="n">
-        <v>-1080238.774675</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1787,21 @@
         <v>9559.5702</v>
       </c>
       <c r="G39" t="n">
-        <v>-1089798.344875</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,22 +1823,21 @@
         <v>9097.0398</v>
       </c>
       <c r="G40" t="n">
-        <v>-1098895.384675</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="J40" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1739,26 +1859,21 @@
         <v>1474.8968</v>
       </c>
       <c r="G41" t="n">
-        <v>-1098895.384675</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1780,26 +1895,21 @@
         <v>669.2380000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-1098226.146675</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,22 +1931,21 @@
         <v>1356.852</v>
       </c>
       <c r="G43" t="n">
-        <v>-1096869.294675</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="J43" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1858,26 +1967,21 @@
         <v>24341.2894</v>
       </c>
       <c r="G44" t="n">
-        <v>-1096869.294675</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1899,26 +2003,21 @@
         <v>22538.6498</v>
       </c>
       <c r="G45" t="n">
-        <v>-1096869.294675</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="J45" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1940,22 +2039,21 @@
         <v>1360.0182</v>
       </c>
       <c r="G46" t="n">
-        <v>-1095509.276475</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1977,26 +2075,21 @@
         <v>26246.1518</v>
       </c>
       <c r="G47" t="n">
-        <v>-1121755.428275</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2018,26 +2111,21 @@
         <v>10178.4856</v>
       </c>
       <c r="G48" t="n">
-        <v>-1111576.942675</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2059,22 +2147,21 @@
         <v>1356.852</v>
       </c>
       <c r="G49" t="n">
-        <v>-1110220.090675</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2096,26 +2183,21 @@
         <v>1918.4594</v>
       </c>
       <c r="G50" t="n">
-        <v>-1108301.631275</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>15.51</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2137,24 +2219,21 @@
         <v>8222.940699999999</v>
       </c>
       <c r="G51" t="n">
-        <v>-1108301.631275</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2176,18 +2255,21 @@
         <v>47133.8788</v>
       </c>
       <c r="G52" t="n">
-        <v>-1061167.752475</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2209,18 +2291,21 @@
         <v>26869.0098</v>
       </c>
       <c r="G53" t="n">
-        <v>-1088036.762275</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2242,18 +2327,21 @@
         <v>6860.2886</v>
       </c>
       <c r="G54" t="n">
-        <v>-1094897.050875</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2275,18 +2363,21 @@
         <v>38913.572</v>
       </c>
       <c r="G55" t="n">
-        <v>-1094897.050875</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2308,18 +2399,21 @@
         <v>115991.009580217</v>
       </c>
       <c r="G56" t="n">
-        <v>-978906.0412947832</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2341,18 +2435,21 @@
         <v>237620.9516209151</v>
       </c>
       <c r="G57" t="n">
-        <v>-741285.0896738681</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2374,18 +2471,21 @@
         <v>12491.9895</v>
       </c>
       <c r="G58" t="n">
-        <v>-753777.0791738682</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2407,18 +2507,21 @@
         <v>8.0105</v>
       </c>
       <c r="G59" t="n">
-        <v>-753777.0791738682</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2440,18 +2543,21 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>-753677.0791738682</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2473,18 +2579,21 @@
         <v>223.0334</v>
       </c>
       <c r="G61" t="n">
-        <v>-753454.0457738682</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2506,18 +2615,21 @@
         <v>101.9666</v>
       </c>
       <c r="G62" t="n">
-        <v>-753556.0123738683</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2539,18 +2651,21 @@
         <v>17535.3109</v>
       </c>
       <c r="G63" t="n">
-        <v>-736020.7014738682</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2572,18 +2687,21 @@
         <v>19593.24399886793</v>
       </c>
       <c r="G64" t="n">
-        <v>-716427.4574750003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2605,18 +2723,21 @@
         <v>98387.61870000001</v>
       </c>
       <c r="G65" t="n">
-        <v>-618039.8387750003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2638,18 +2759,21 @@
         <v>57228.5856</v>
       </c>
       <c r="G66" t="n">
-        <v>-560811.2531750003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2671,18 +2795,21 @@
         <v>41688.8406</v>
       </c>
       <c r="G67" t="n">
-        <v>-560811.2531750003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2704,18 +2831,21 @@
         <v>3400.0311</v>
       </c>
       <c r="G68" t="n">
-        <v>-564211.2842750003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2737,18 +2867,21 @@
         <v>12606.361</v>
       </c>
       <c r="G69" t="n">
-        <v>-576817.6452750004</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2770,18 +2903,21 @@
         <v>33</v>
       </c>
       <c r="G70" t="n">
-        <v>-576784.6452750004</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2803,18 +2939,21 @@
         <v>2192.5405</v>
       </c>
       <c r="G71" t="n">
-        <v>-576784.6452750004</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2836,18 +2975,21 @@
         <v>4347.7612</v>
       </c>
       <c r="G72" t="n">
-        <v>-576784.6452750004</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2869,18 +3011,21 @@
         <v>3552.7119</v>
       </c>
       <c r="G73" t="n">
-        <v>-573231.9333750004</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2902,18 +3047,21 @@
         <v>9964.1016</v>
       </c>
       <c r="G74" t="n">
-        <v>-573231.9333750004</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2935,18 +3083,21 @@
         <v>3520.7119</v>
       </c>
       <c r="G75" t="n">
-        <v>-576752.6452750004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2968,18 +3119,21 @@
         <v>1662.1354</v>
       </c>
       <c r="G76" t="n">
-        <v>-575090.5098750003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3001,18 +3155,21 @@
         <v>5299.5319</v>
       </c>
       <c r="G77" t="n">
-        <v>-580390.0417750003</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3034,18 +3191,21 @@
         <v>6462.9811</v>
       </c>
       <c r="G78" t="n">
-        <v>-573927.0606750003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3067,18 +3227,21 @@
         <v>9964.1016</v>
       </c>
       <c r="G79" t="n">
-        <v>-583891.1622750004</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3100,18 +3263,21 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>-583791.1622750004</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3133,18 +3299,21 @@
         <v>6508.3017</v>
       </c>
       <c r="G81" t="n">
-        <v>-590299.4639750003</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3166,18 +3335,21 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-590199.4639750003</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3199,18 +3371,21 @@
         <v>15692.3755</v>
       </c>
       <c r="G83" t="n">
-        <v>-605891.8394750003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3232,18 +3407,21 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>-605791.8394750003</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3265,18 +3443,21 @@
         <v>37564.5887</v>
       </c>
       <c r="G85" t="n">
-        <v>-643356.4281750002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3298,18 +3479,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>-643256.4281750002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3331,18 +3515,21 @@
         <v>168.0092177358491</v>
       </c>
       <c r="G87" t="n">
-        <v>-643088.4189572644</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3364,18 +3551,21 @@
         <v>33315.04048226415</v>
       </c>
       <c r="G88" t="n">
-        <v>-609773.3784750003</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3397,18 +3587,21 @@
         <v>13261.2873</v>
       </c>
       <c r="G89" t="n">
-        <v>-623034.6657750002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3430,18 +3623,21 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-622934.6657750002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3463,18 +3659,21 @@
         <v>5340.803</v>
       </c>
       <c r="G91" t="n">
-        <v>-628275.4687750002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3496,18 +3695,21 @@
         <v>32</v>
       </c>
       <c r="G92" t="n">
-        <v>-628243.4687750002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3529,18 +3731,21 @@
         <v>10554.7843</v>
       </c>
       <c r="G93" t="n">
-        <v>-628243.4687750002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3562,18 +3767,21 @@
         <v>9527.189200000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-628243.4687750002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3595,18 +3803,21 @@
         <v>7347.2628</v>
       </c>
       <c r="G95" t="n">
-        <v>-620896.2059750002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3628,18 +3839,21 @@
         <v>42918.6443</v>
       </c>
       <c r="G96" t="n">
-        <v>-663814.8502750002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3661,18 +3875,21 @@
         <v>3713.2355</v>
       </c>
       <c r="G97" t="n">
-        <v>-660101.6147750003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3694,18 +3911,21 @@
         <v>2117.533</v>
       </c>
       <c r="G98" t="n">
-        <v>-660101.6147750003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3727,18 +3947,21 @@
         <v>2500</v>
       </c>
       <c r="G99" t="n">
-        <v>-662601.6147750003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3760,18 +3983,21 @@
         <v>7034.7865</v>
       </c>
       <c r="G100" t="n">
-        <v>-662601.6147750003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3793,18 +4019,21 @@
         <v>7907.3931</v>
       </c>
       <c r="G101" t="n">
-        <v>-654694.2216750003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3826,18 +4055,21 @@
         <v>1325.6402</v>
       </c>
       <c r="G102" t="n">
-        <v>-654694.2216750003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3859,18 +4091,21 @@
         <v>1952.5208</v>
       </c>
       <c r="G103" t="n">
-        <v>-654694.2216750003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3892,18 +4127,21 @@
         <v>13088.3509</v>
       </c>
       <c r="G104" t="n">
-        <v>-667782.5725750002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3925,18 +4163,21 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>-667682.5725750002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3958,18 +4199,21 @@
         <v>5464.6416</v>
       </c>
       <c r="G106" t="n">
-        <v>-667682.5725750002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3991,18 +4235,21 @@
         <v>6768.5702</v>
       </c>
       <c r="G107" t="n">
-        <v>-660914.0023750003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4024,18 +4271,21 @@
         <v>100224.5882</v>
       </c>
       <c r="G108" t="n">
-        <v>-560689.4141750003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4057,18 +4307,21 @@
         <v>3275.1294</v>
       </c>
       <c r="G109" t="n">
-        <v>-557414.2847750003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4090,18 +4343,21 @@
         <v>3360.943</v>
       </c>
       <c r="G110" t="n">
-        <v>-554053.3417750003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4123,18 +4379,21 @@
         <v>236472.3691760234</v>
       </c>
       <c r="G111" t="n">
-        <v>-317580.9725989769</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4156,18 +4415,21 @@
         <v>6262.0212</v>
       </c>
       <c r="G112" t="n">
-        <v>-317580.9725989769</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4189,18 +4451,21 @@
         <v>53.2249</v>
       </c>
       <c r="G113" t="n">
-        <v>-317527.7476989769</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4222,18 +4487,21 @@
         <v>18163.6541</v>
       </c>
       <c r="G114" t="n">
-        <v>-335691.4017989769</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4255,18 +4523,21 @@
         <v>205565.5982</v>
       </c>
       <c r="G115" t="n">
-        <v>-541256.9999989769</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4288,18 +4559,21 @@
         <v>10778.4314</v>
       </c>
       <c r="G116" t="n">
-        <v>-530478.5685989769</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4321,18 +4595,21 @@
         <v>6169.1686</v>
       </c>
       <c r="G117" t="n">
-        <v>-536647.7371989769</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4354,18 +4631,21 @@
         <v>25335.6484</v>
       </c>
       <c r="G118" t="n">
-        <v>-511312.0887989769</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4387,18 +4667,21 @@
         <v>25275.9108</v>
       </c>
       <c r="G119" t="n">
-        <v>-486036.1779989769</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4420,18 +4703,21 @@
         <v>14873.8538</v>
       </c>
       <c r="G120" t="n">
-        <v>-471162.3241989769</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4453,18 +4739,21 @@
         <v>10764.0402</v>
       </c>
       <c r="G121" t="n">
-        <v>-481926.3643989769</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4486,18 +4775,21 @@
         <v>24183.4436</v>
       </c>
       <c r="G122" t="n">
-        <v>-481926.3643989769</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4519,18 +4811,21 @@
         <v>55200.8882</v>
       </c>
       <c r="G123" t="n">
-        <v>-481926.3643989769</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4552,18 +4847,21 @@
         <v>49458.3088</v>
       </c>
       <c r="G124" t="n">
-        <v>-432468.0555989769</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4585,18 +4883,21 @@
         <v>70</v>
       </c>
       <c r="G125" t="n">
-        <v>-432538.0555989769</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4618,18 +4919,21 @@
         <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>-432508.0555989769</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4651,18 +4955,21 @@
         <v>3711.7996</v>
       </c>
       <c r="G127" t="n">
-        <v>-436219.8551989769</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4684,18 +4991,21 @@
         <v>96696.9957</v>
       </c>
       <c r="G128" t="n">
-        <v>-339522.859498977</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4717,18 +5027,21 @@
         <v>1368.2657</v>
       </c>
       <c r="G129" t="n">
-        <v>-340891.125198977</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4750,18 +5063,21 @@
         <v>33</v>
       </c>
       <c r="G130" t="n">
-        <v>-340924.125198977</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4783,18 +5099,21 @@
         <v>234.1683</v>
       </c>
       <c r="G131" t="n">
-        <v>-341158.293498977</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4816,18 +5135,21 @@
         <v>1368.2657</v>
       </c>
       <c r="G132" t="n">
-        <v>-342526.559198977</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4849,18 +5171,21 @@
         <v>32</v>
       </c>
       <c r="G133" t="n">
-        <v>-342494.559198977</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4882,18 +5207,21 @@
         <v>150</v>
       </c>
       <c r="G134" t="n">
-        <v>-342644.559198977</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4915,18 +5243,21 @@
         <v>4358.8557</v>
       </c>
       <c r="G135" t="n">
-        <v>-347003.414898977</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4948,18 +5279,21 @@
         <v>4292.6626</v>
       </c>
       <c r="G136" t="n">
-        <v>-351296.077498977</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4981,18 +5315,21 @@
         <v>32</v>
       </c>
       <c r="G137" t="n">
-        <v>-351264.077498977</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5014,18 +5351,21 @@
         <v>83675.3278</v>
       </c>
       <c r="G138" t="n">
-        <v>-434939.4052989769</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5047,18 +5387,21 @@
         <v>6162.0212</v>
       </c>
       <c r="G139" t="n">
-        <v>-434939.4052989769</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5080,18 +5423,21 @@
         <v>28401.9137</v>
       </c>
       <c r="G140" t="n">
-        <v>-406537.491598977</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5113,18 +5459,21 @@
         <v>3003.7839</v>
       </c>
       <c r="G141" t="n">
-        <v>-406537.491598977</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5146,18 +5495,21 @@
         <v>33569.7998</v>
       </c>
       <c r="G142" t="n">
-        <v>-372967.691798977</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5179,18 +5531,21 @@
         <v>38300.9475</v>
       </c>
       <c r="G143" t="n">
-        <v>-334666.744298977</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5212,18 +5567,21 @@
         <v>12802.9574</v>
       </c>
       <c r="G144" t="n">
-        <v>-334666.744298977</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5245,18 +5603,21 @@
         <v>224862.93108502</v>
       </c>
       <c r="G145" t="n">
-        <v>-109803.8132139569</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5278,18 +5639,21 @@
         <v>96.0103</v>
       </c>
       <c r="G146" t="n">
-        <v>-109899.8235139569</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5311,18 +5675,21 @@
         <v>115404.3046</v>
       </c>
       <c r="G147" t="n">
-        <v>5504.481086043059</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5344,18 +5711,21 @@
         <v>46019.2951</v>
       </c>
       <c r="G148" t="n">
-        <v>-40514.81401395694</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5377,18 +5747,21 @@
         <v>12288.73</v>
       </c>
       <c r="G149" t="n">
-        <v>-52803.54401395694</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5410,18 +5783,21 @@
         <v>872.1671</v>
       </c>
       <c r="G150" t="n">
-        <v>-51931.37691395694</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5443,18 +5819,21 @@
         <v>20689.43337431193</v>
       </c>
       <c r="G151" t="n">
-        <v>-51931.37691395694</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5476,18 +5855,21 @@
         <v>987725.6763406681</v>
       </c>
       <c r="G152" t="n">
-        <v>935794.2994267112</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5509,18 +5891,21 @@
         <v>316068.9607</v>
       </c>
       <c r="G153" t="n">
-        <v>1251863.260126711</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5542,18 +5927,21 @@
         <v>200818.5977</v>
       </c>
       <c r="G154" t="n">
-        <v>1051044.662426711</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5575,18 +5963,21 @@
         <v>56894.36646873602</v>
       </c>
       <c r="G155" t="n">
-        <v>1107939.028895447</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5608,18 +5999,21 @@
         <v>4177.1183</v>
       </c>
       <c r="G156" t="n">
-        <v>1112116.147195447</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5641,18 +6035,21 @@
         <v>8981.5857</v>
       </c>
       <c r="G157" t="n">
-        <v>1103134.561495447</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5674,18 +6071,21 @@
         <v>451934.9939913841</v>
       </c>
       <c r="G158" t="n">
-        <v>1555069.555486831</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5707,18 +6107,21 @@
         <v>689044.7400086159</v>
       </c>
       <c r="G159" t="n">
-        <v>2244114.295495447</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5740,18 +6143,21 @@
         <v>162050.1957</v>
       </c>
       <c r="G160" t="n">
-        <v>2082064.099795447</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5773,18 +6179,21 @@
         <v>95018.90113758224</v>
       </c>
       <c r="G161" t="n">
-        <v>2177083.000933029</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5806,18 +6215,21 @@
         <v>106650.2924</v>
       </c>
       <c r="G162" t="n">
-        <v>2070432.708533029</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5839,18 +6251,21 @@
         <v>129659.4525706942</v>
       </c>
       <c r="G163" t="n">
-        <v>2200092.161103723</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5872,18 +6287,21 @@
         <v>80129.63636617179</v>
       </c>
       <c r="G164" t="n">
-        <v>2119962.524737551</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5905,18 +6323,21 @@
         <v>287949.7719721103</v>
       </c>
       <c r="G165" t="n">
-        <v>1832012.752765441</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5938,18 +6359,21 @@
         <v>180245.913</v>
       </c>
       <c r="G166" t="n">
-        <v>1832012.752765441</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5971,18 +6395,21 @@
         <v>177339.5197</v>
       </c>
       <c r="G167" t="n">
-        <v>1654673.233065441</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6004,18 +6431,21 @@
         <v>56908.7163</v>
       </c>
       <c r="G168" t="n">
-        <v>1711581.949365441</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6037,18 +6467,21 @@
         <v>46935.7854</v>
       </c>
       <c r="G169" t="n">
-        <v>1758517.734765441</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6070,18 +6503,21 @@
         <v>130495.3589086249</v>
       </c>
       <c r="G170" t="n">
-        <v>1628022.375856816</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6103,18 +6539,21 @@
         <v>71384.40053888588</v>
       </c>
       <c r="G171" t="n">
-        <v>1699406.776395702</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6136,18 +6575,21 @@
         <v>162913.0183524892</v>
       </c>
       <c r="G172" t="n">
-        <v>1862319.794748191</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6169,18 +6611,23 @@
         <v>199979.3478</v>
       </c>
       <c r="G173" t="n">
-        <v>2062299.142548191</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1.208410702772405</v>
+      </c>
       <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>1.010960670535139</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6202,18 +6649,15 @@
         <v>183625.3204</v>
       </c>
       <c r="G174" t="n">
-        <v>1878673.822148191</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6235,18 +6679,15 @@
         <v>15268.3587</v>
       </c>
       <c r="G175" t="n">
-        <v>1863405.463448191</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6268,18 +6709,15 @@
         <v>21912.5632</v>
       </c>
       <c r="G176" t="n">
-        <v>1885318.026648191</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6301,18 +6739,15 @@
         <v>29684.601</v>
       </c>
       <c r="G177" t="n">
-        <v>1915002.627648191</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6334,18 +6769,15 @@
         <v>85679.9574</v>
       </c>
       <c r="G178" t="n">
-        <v>1829322.670248191</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6367,18 +6799,15 @@
         <v>65788.82060000001</v>
       </c>
       <c r="G179" t="n">
-        <v>1763533.849648191</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6400,18 +6829,15 @@
         <v>24213.4231</v>
       </c>
       <c r="G180" t="n">
-        <v>1787747.272748191</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6433,18 +6859,15 @@
         <v>88904.88959999999</v>
       </c>
       <c r="G181" t="n">
-        <v>1698842.383148191</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6466,18 +6889,15 @@
         <v>56714.6829</v>
       </c>
       <c r="G182" t="n">
-        <v>1642127.700248192</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6499,18 +6919,15 @@
         <v>55276.7018</v>
       </c>
       <c r="G183" t="n">
-        <v>1586850.998448192</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6532,18 +6949,15 @@
         <v>28004.8437</v>
       </c>
       <c r="G184" t="n">
-        <v>1614855.842148192</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6565,18 +6979,15 @@
         <v>49605.7453</v>
       </c>
       <c r="G185" t="n">
-        <v>1565250.096848192</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6598,18 +7009,15 @@
         <v>53853.8443</v>
       </c>
       <c r="G186" t="n">
-        <v>1619103.941148192</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6631,18 +7039,15 @@
         <v>145805.606</v>
       </c>
       <c r="G187" t="n">
-        <v>1473298.335148192</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6664,18 +7069,15 @@
         <v>32931.38</v>
       </c>
       <c r="G188" t="n">
-        <v>1473298.335148192</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6697,18 +7099,15 @@
         <v>44811.3645</v>
       </c>
       <c r="G189" t="n">
-        <v>1473298.335148192</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6730,18 +7129,15 @@
         <v>37861.2922</v>
       </c>
       <c r="G190" t="n">
-        <v>1435437.042948192</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6763,18 +7159,15 @@
         <v>4935.421</v>
       </c>
       <c r="G191" t="n">
-        <v>1440372.463948192</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6796,18 +7189,15 @@
         <v>44413.2336</v>
       </c>
       <c r="G192" t="n">
-        <v>1395959.230348192</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6829,18 +7219,15 @@
         <v>138146.2049</v>
       </c>
       <c r="G193" t="n">
-        <v>1257813.025448192</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6862,18 +7249,15 @@
         <v>48951.8495</v>
       </c>
       <c r="G194" t="n">
-        <v>1208861.175948192</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6895,18 +7279,15 @@
         <v>304683.2125</v>
       </c>
       <c r="G195" t="n">
-        <v>904177.9634481919</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6928,18 +7309,15 @@
         <v>282899.9559</v>
       </c>
       <c r="G196" t="n">
-        <v>1187077.919348192</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6961,18 +7339,15 @@
         <v>28507.0264</v>
       </c>
       <c r="G197" t="n">
-        <v>1215584.945748192</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6994,18 +7369,15 @@
         <v>86583.1557</v>
       </c>
       <c r="G198" t="n">
-        <v>1129001.790048192</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7027,18 +7399,15 @@
         <v>26737.5538</v>
       </c>
       <c r="G199" t="n">
-        <v>1129001.790048192</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7060,18 +7429,15 @@
         <v>2280</v>
       </c>
       <c r="G200" t="n">
-        <v>1126721.790048192</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7093,18 +7459,15 @@
         <v>206369.6900905917</v>
       </c>
       <c r="G201" t="n">
-        <v>1333091.480138784</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7126,18 +7489,15 @@
         <v>422.8565</v>
       </c>
       <c r="G202" t="n">
-        <v>1333514.336638784</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7159,18 +7519,15 @@
         <v>239017.3624</v>
       </c>
       <c r="G203" t="n">
-        <v>1094496.974238784</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7192,18 +7549,15 @@
         <v>58093.5699</v>
       </c>
       <c r="G204" t="n">
-        <v>1152590.544138784</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7225,18 +7579,15 @@
         <v>39</v>
       </c>
       <c r="G205" t="n">
-        <v>1152629.544138784</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7258,18 +7609,15 @@
         <v>136833.5711</v>
       </c>
       <c r="G206" t="n">
-        <v>1015795.973038784</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7291,18 +7639,15 @@
         <v>6732.3505</v>
       </c>
       <c r="G207" t="n">
-        <v>1009063.622538784</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7324,18 +7669,15 @@
         <v>11096</v>
       </c>
       <c r="G208" t="n">
-        <v>1020159.622538784</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7357,18 +7699,15 @@
         <v>90</v>
       </c>
       <c r="G209" t="n">
-        <v>1020249.622538784</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7390,18 +7729,15 @@
         <v>81036.0456</v>
       </c>
       <c r="G210" t="n">
-        <v>939213.5769387839</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7423,18 +7759,15 @@
         <v>42742.0045</v>
       </c>
       <c r="G211" t="n">
-        <v>896471.5724387838</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7456,18 +7789,15 @@
         <v>96808.6379</v>
       </c>
       <c r="G212" t="n">
-        <v>799662.9345387839</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7489,18 +7819,15 @@
         <v>2386.6121</v>
       </c>
       <c r="G213" t="n">
-        <v>802049.5466387839</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7522,18 +7849,15 @@
         <v>114982.844</v>
       </c>
       <c r="G214" t="n">
-        <v>917032.3906387839</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7555,18 +7879,15 @@
         <v>278</v>
       </c>
       <c r="G215" t="n">
-        <v>917310.3906387839</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7588,18 +7909,15 @@
         <v>43644.6642</v>
       </c>
       <c r="G216" t="n">
-        <v>873665.7264387839</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7621,18 +7939,15 @@
         <v>329.6697</v>
       </c>
       <c r="G217" t="n">
-        <v>873995.3961387839</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7654,18 +7969,15 @@
         <v>30</v>
       </c>
       <c r="G218" t="n">
-        <v>874025.3961387839</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7687,18 +7999,15 @@
         <v>60</v>
       </c>
       <c r="G219" t="n">
-        <v>873965.3961387839</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7720,18 +8029,15 @@
         <v>63697.1914</v>
       </c>
       <c r="G220" t="n">
-        <v>810268.2047387839</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7753,18 +8059,15 @@
         <v>90</v>
       </c>
       <c r="G221" t="n">
-        <v>810178.2047387839</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7786,18 +8089,15 @@
         <v>5466.346</v>
       </c>
       <c r="G222" t="n">
-        <v>804711.8587387839</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7819,18 +8119,15 @@
         <v>53815.4977</v>
       </c>
       <c r="G223" t="n">
-        <v>750896.3610387839</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7852,18 +8149,15 @@
         <v>46214.56768823529</v>
       </c>
       <c r="G224" t="n">
-        <v>704681.7933505486</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7885,18 +8179,15 @@
         <v>33952.1999</v>
       </c>
       <c r="G225" t="n">
-        <v>738633.9932505486</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7918,18 +8209,15 @@
         <v>112493.8209</v>
       </c>
       <c r="G226" t="n">
-        <v>851127.8141505487</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7951,18 +8239,15 @@
         <v>6149.5056</v>
       </c>
       <c r="G227" t="n">
-        <v>851127.8141505487</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7984,18 +8269,15 @@
         <v>43146.2274</v>
       </c>
       <c r="G228" t="n">
-        <v>807981.5867505487</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8017,18 +8299,15 @@
         <v>13817.5088</v>
       </c>
       <c r="G229" t="n">
-        <v>794164.0779505487</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8050,18 +8329,15 @@
         <v>65878.8888</v>
       </c>
       <c r="G230" t="n">
-        <v>728285.1891505488</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8083,18 +8359,15 @@
         <v>31979.1891</v>
       </c>
       <c r="G231" t="n">
-        <v>696306.0000505488</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8116,18 +8389,15 @@
         <v>100</v>
       </c>
       <c r="G232" t="n">
-        <v>696406.0000505488</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8149,18 +8419,15 @@
         <v>12477.2774</v>
       </c>
       <c r="G233" t="n">
-        <v>708883.2774505488</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8182,18 +8449,15 @@
         <v>3541.6832</v>
       </c>
       <c r="G234" t="n">
-        <v>705341.5942505489</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8215,18 +8479,15 @@
         <v>39865.892</v>
       </c>
       <c r="G235" t="n">
-        <v>665475.7022505489</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8248,18 +8509,15 @@
         <v>6027.7598</v>
       </c>
       <c r="G236" t="n">
-        <v>671503.4620505489</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8281,18 +8539,15 @@
         <v>30929.3838</v>
       </c>
       <c r="G237" t="n">
-        <v>640574.0782505489</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8314,18 +8569,15 @@
         <v>136142.2979</v>
       </c>
       <c r="G238" t="n">
-        <v>776716.3761505489</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8347,18 +8599,15 @@
         <v>5006.1291</v>
       </c>
       <c r="G239" t="n">
-        <v>781722.5052505489</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8380,18 +8629,15 @@
         <v>5828.5748</v>
       </c>
       <c r="G240" t="n">
-        <v>787551.0800505489</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8413,18 +8659,15 @@
         <v>67627.95819999999</v>
       </c>
       <c r="G241" t="n">
-        <v>855179.0382505489</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8446,18 +8689,15 @@
         <v>119831.6469</v>
       </c>
       <c r="G242" t="n">
-        <v>855179.0382505489</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8479,18 +8719,15 @@
         <v>21107.3047</v>
       </c>
       <c r="G243" t="n">
-        <v>834071.7335505489</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8512,18 +8749,15 @@
         <v>1676.4873</v>
       </c>
       <c r="G244" t="n">
-        <v>832395.2462505489</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8545,18 +8779,15 @@
         <v>1547.9535</v>
       </c>
       <c r="G245" t="n">
-        <v>830847.2927505489</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8578,18 +8809,15 @@
         <v>9905.405199999999</v>
       </c>
       <c r="G246" t="n">
-        <v>830847.2927505489</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8611,18 +8839,15 @@
         <v>53225.575</v>
       </c>
       <c r="G247" t="n">
-        <v>777621.717750549</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8644,18 +8869,15 @@
         <v>8798.6203</v>
       </c>
       <c r="G248" t="n">
-        <v>786420.3380505489</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8677,18 +8899,15 @@
         <v>11101.9869</v>
       </c>
       <c r="G249" t="n">
-        <v>797522.3249505489</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8710,18 +8929,15 @@
         <v>80389.86840000001</v>
       </c>
       <c r="G250" t="n">
-        <v>717132.4565505489</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8743,18 +8959,15 @@
         <v>1448.7046</v>
       </c>
       <c r="G251" t="n">
-        <v>718581.161150549</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8776,18 +8989,15 @@
         <v>67020.28479999999</v>
       </c>
       <c r="G252" t="n">
-        <v>651560.8763505489</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8809,18 +9019,15 @@
         <v>26045.6369</v>
       </c>
       <c r="G253" t="n">
-        <v>651560.8763505489</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8842,18 +9049,15 @@
         <v>1190.7621</v>
       </c>
       <c r="G254" t="n">
-        <v>651560.8763505489</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8875,18 +9079,15 @@
         <v>9846.628199999999</v>
       </c>
       <c r="G255" t="n">
-        <v>641714.2481505489</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8908,18 +9109,15 @@
         <v>64407.7305</v>
       </c>
       <c r="G256" t="n">
-        <v>706121.9786505488</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8941,18 +9139,15 @@
         <v>86687.2311</v>
       </c>
       <c r="G257" t="n">
-        <v>619434.7475505489</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8974,18 +9169,15 @@
         <v>121633.7465</v>
       </c>
       <c r="G258" t="n">
-        <v>497801.0010505489</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9007,18 +9199,15 @@
         <v>186149.966</v>
       </c>
       <c r="G259" t="n">
-        <v>683950.9670505489</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9040,18 +9229,15 @@
         <v>87100.96859999999</v>
       </c>
       <c r="G260" t="n">
-        <v>596849.9984505489</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9073,18 +9259,15 @@
         <v>12615.3946</v>
       </c>
       <c r="G261" t="n">
-        <v>584234.6038505489</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9106,18 +9289,15 @@
         <v>11318.7332</v>
       </c>
       <c r="G262" t="n">
-        <v>572915.8706505488</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9139,18 +9319,15 @@
         <v>68289.069</v>
       </c>
       <c r="G263" t="n">
-        <v>504626.8016505488</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9172,18 +9349,15 @@
         <v>172386.3764</v>
       </c>
       <c r="G264" t="n">
-        <v>332240.4252505488</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9205,18 +9379,15 @@
         <v>156491.1727</v>
       </c>
       <c r="G265" t="n">
-        <v>488731.5979505488</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9238,18 +9409,15 @@
         <v>87027.25719999999</v>
       </c>
       <c r="G266" t="n">
-        <v>575758.8551505487</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9271,18 +9439,15 @@
         <v>33170.6273</v>
       </c>
       <c r="G267" t="n">
-        <v>608929.4824505488</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9304,18 +9469,15 @@
         <v>53147.0082</v>
       </c>
       <c r="G268" t="n">
-        <v>662076.4906505488</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9337,18 +9499,15 @@
         <v>176822.3606</v>
       </c>
       <c r="G269" t="n">
-        <v>662076.4906505488</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9370,18 +9529,15 @@
         <v>4405.0614</v>
       </c>
       <c r="G270" t="n">
-        <v>666481.5520505488</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9403,18 +9559,15 @@
         <v>9078.1582</v>
       </c>
       <c r="G271" t="n">
-        <v>666481.5520505488</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
